--- a/csv/図の作成用.xlsx
+++ b/csv/図の作成用.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miyakooti/repositories/arai_MATLAB_program/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E8B264-22D0-DB4C-9640-55472DB881DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535D4420-1CA9-5746-B6DD-11E56AAF174C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
   <si>
     <t>LF</t>
     <phoneticPr fontId="18"/>
@@ -169,6 +169,32 @@
   </si>
   <si>
     <t>Quadratic model</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>FC3_PLI_diff</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>FC4_PLI_diff</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>FCz_PLI_diff</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>mean</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SD</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -781,7 +807,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -800,11 +826,8 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1161,58 +1184,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="90" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>25</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>26</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1220,44 +1250,50 @@
         <v>4</v>
       </c>
       <c r="C2">
+        <v>75.511427333499995</v>
+      </c>
+      <c r="D2">
+        <v>7.6282781956801102</v>
+      </c>
+      <c r="E2">
         <v>0.121406203246561</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>0.61013695527990097</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2">
+      <c r="G2" s="1"/>
+      <c r="H2">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>4</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>0.61013695499999998</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>1.4739466E-2</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>-3.9997230000000002E-2</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>2.6256448000000002E-2</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>0.61163749700000003</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>1.461688E-2</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>-4.0126625999999999E-2</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>1.66558E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1265,44 +1301,50 @@
         <v>5</v>
       </c>
       <c r="C3">
+        <v>802.25999560000002</v>
+      </c>
+      <c r="D3">
+        <v>76.408220444873905</v>
+      </c>
+      <c r="E3">
         <v>-0.12240196325991901</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>0.60718789614871405</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3">
+      <c r="G3" s="1"/>
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>5</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>0.607187896</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>1.4982241E-2</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>-3.9740968000000002E-2</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>-2.6428340000000002E-3</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>0.60600168399999998</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>1.5080589E-2</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>-3.9637156999999999E-2</v>
       </c>
-      <c r="O3" s="2">
+      <c r="Q3" s="2">
         <v>-1.68E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1310,44 +1352,50 @@
         <v>6</v>
       </c>
       <c r="C4">
+        <v>478.7</v>
+      </c>
+      <c r="D4">
+        <v>281.790365342749</v>
+      </c>
+      <c r="E4">
         <v>-0.61718441596542395</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>3.7429946650656101E-3</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4">
+      <c r="G4" s="1"/>
+      <c r="H4">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>6</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>3.7429949999999998E-3</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>0.38091660300000002</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>0.34652308100000001</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>-3.6133530000000001E-3</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>1.4398123000000001E-2</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>0.28950460099999997</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>0.25003263399999998</v>
       </c>
-      <c r="O4" s="2">
+      <c r="Q4" s="2">
         <v>-2.2199999999999999E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1355,44 +1403,50 @@
         <v>7</v>
       </c>
       <c r="C5">
+        <v>256.89999999999998</v>
+      </c>
+      <c r="D5">
+        <v>227.910267429969</v>
+      </c>
+      <c r="E5">
         <v>-0.189292904559693</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>0.42411586107346699</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5">
+      <c r="G5" s="1"/>
+      <c r="H5">
         <v>3</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>7</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>0.42411586099999998</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>3.5831804000000002E-2</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>-1.7733096E-2</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>-1.370226E-3</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>0.52470681399999997</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>2.2846117999999999E-2</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>-3.1440208999999997E-2</v>
       </c>
-      <c r="O5" s="2">
+      <c r="Q5" s="2">
         <v>-9.7699999999999992E-7</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1400,44 +1454,50 @@
         <v>8</v>
       </c>
       <c r="C6">
+        <v>2.4623499999999998</v>
+      </c>
+      <c r="D6">
+        <v>1.1895999443090099</v>
+      </c>
+      <c r="E6">
         <v>-0.328635785460202</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>0.15714910344931199</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6">
+      <c r="G6" s="1"/>
+      <c r="H6">
         <v>4</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>8</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>0.15714910300000001</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>0.108001479</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>5.8446006000000002E-2</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>-0.45575929999999998</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>6.1644846000000003E-2</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>0.180777618</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>0.135265263</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>-0.113248796</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1445,43 +1505,49 @@
         <v>9</v>
       </c>
       <c r="C7">
+        <v>-18.216340554999999</v>
+      </c>
+      <c r="D7">
+        <v>361.238995786923</v>
+      </c>
+      <c r="E7">
         <v>0.27144406645558899</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>0.24699928141470701</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>5</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>9</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>0.24699928099999999</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>7.3681881000000005E-2</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>2.2219763999999999E-2</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>1.2396740000000001E-3</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>0.28516276400000001</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>6.3156185000000004E-2</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>1.1109307000000001E-2</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>-1.75E-6</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1489,43 +1555,49 @@
         <v>10</v>
       </c>
       <c r="C8">
+        <v>251.47043021445</v>
+      </c>
+      <c r="D8">
+        <v>289.704452222881</v>
+      </c>
+      <c r="E8">
         <v>0.36014381946616503</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>0.118811586258221</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>6</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>10</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>0.118811586</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>0.12970357099999999</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>8.1353769000000006E-2</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>2.0508900000000001E-3</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>0.37472372300000001</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>4.4004429999999997E-2</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>-9.1064349999999995E-3</v>
       </c>
-      <c r="O8" s="2">
+      <c r="Q8" s="2">
         <v>1.26E-6</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1533,43 +1605,49 @@
         <v>11</v>
       </c>
       <c r="C9">
+        <v>-0.54642892455000003</v>
+      </c>
+      <c r="D9">
+        <v>1.9584725484228001</v>
+      </c>
+      <c r="E9">
         <v>-0.12746000951394201</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>0.59229874419797901</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>7</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>11</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>0.59229874400000004</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>1.6246053999999999E-2</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>-3.8406942999999999E-2</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>-0.107368795</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>0.91136329199999999</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>7.0757100000000005E-4</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>-5.4808675000000001E-2</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>8.2375509999999992E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1577,43 +1655,49 @@
         <v>12</v>
       </c>
       <c r="C10">
+        <v>0.43941249999999998</v>
+      </c>
+      <c r="D10">
+        <v>0.12917601971244499</v>
+      </c>
+      <c r="E10">
         <v>-0.12010018018239101</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>0.61401367376812299</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>8</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>12</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>0.61401367399999995</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>1.4424052999999999E-2</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>-4.0330166000000001E-2</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>-1.5338517389999999</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>0.79703244299999998</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>3.7710959999999998E-3</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>-5.1574953999999999E-2</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>-0.79012735099999998</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1621,43 +1705,49 @@
         <v>13</v>
       </c>
       <c r="C11">
+        <v>0.47572199999999998</v>
+      </c>
+      <c r="D11">
+        <v>0.120995997727197</v>
+      </c>
+      <c r="E11">
         <v>4.2554971661239303E-2</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>0.858614949923176</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>9</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>13</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>0.85861494999999999</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>1.810926E-3</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>-5.3644022999999999E-2</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>0.58023099300000003</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>0.79153432300000004</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>3.9826360000000003E-3</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>-5.1351661999999999E-2</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>0.79277652899999995</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1665,43 +1755,49 @@
         <v>14</v>
       </c>
       <c r="C12">
+        <v>0.56686999999999999</v>
+      </c>
+      <c r="D12">
+        <v>0.105703155109012</v>
+      </c>
+      <c r="E12">
         <v>6.1530458136688096E-3</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>0.97946031204817696</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>10</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>14</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>0.97946031200000006</v>
       </c>
-      <c r="I12" s="2">
+      <c r="K12" s="2">
         <v>3.79E-5</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>-5.5515592000000002E-2</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>9.6033734999999995E-2</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>0.92054074699999999</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>5.68211E-4</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>-5.4955777999999997E-2</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>0.32325765200000001</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:17">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1709,43 +1805,49 @@
         <v>15</v>
       </c>
       <c r="C13">
+        <v>0.49400149994999998</v>
+      </c>
+      <c r="D13">
+        <v>0.111674596877435</v>
+      </c>
+      <c r="E13">
         <v>-2.89970019489313E-2</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>0.90341104067081901</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>15</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>0.90341104100000003</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>8.4082600000000003E-4</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>-5.4668016999999999E-2</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>-0.428371261</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>0.99562516000000001</v>
       </c>
-      <c r="M13" s="2">
+      <c r="O13" s="2">
         <v>1.72E-6</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>-5.5553743000000003E-2</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>-1.7573811000000002E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:17">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1753,43 +1855,49 @@
         <v>16</v>
       </c>
       <c r="C14">
+        <v>0.19578319289999899</v>
+      </c>
+      <c r="D14">
+        <v>0.117262868887656</v>
+      </c>
+      <c r="E14">
         <v>0.373674462970431</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>0.104601927572138</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>12</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
         <v>16</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>0.104601928</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>0.13963260399999999</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>9.1834416000000002E-2</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>5.2572003299999999</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>0.34368284700000001</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>4.9920649999999997E-2</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>-2.861536E-3</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>7.267884842</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:17">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1797,43 +1905,49 @@
         <v>17</v>
       </c>
       <c r="C15">
+        <v>0.16526584969999999</v>
+      </c>
+      <c r="D15">
+        <v>0.13516750803249999</v>
+      </c>
+      <c r="E15">
         <v>-2.2547023984628298E-2</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>0.92482936080186295</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>13</v>
       </c>
-      <c r="G15" t="s">
+      <c r="I15" t="s">
         <v>17</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>0.92482936100000002</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>5.0836800000000004E-4</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>-5.5018945E-2</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>-0.27519373499999999</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>0.74729566400000003</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>5.9123839999999997E-3</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <v>-4.9314706E-2</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>-2.640719008</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:17">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1841,43 +1955,49 @@
         <v>18</v>
       </c>
       <c r="C16">
+        <v>0.15639296499999999</v>
+      </c>
+      <c r="D16">
+        <v>0.126568619932586</v>
+      </c>
+      <c r="E16">
         <v>0.23372805636411101</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>0.32130171775522698</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>14</v>
       </c>
-      <c r="G16" t="s">
+      <c r="I16" t="s">
         <v>18</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>0.32130171800000001</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>5.4628804000000003E-2</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>2.1081820000000001E-3</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>3.0465367790000002</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>0.16281253700000001</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>0.10527088</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <v>5.5563706999999997E-2</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>13.817874659999999</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:17">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1885,606 +2005,667 @@
         <v>19</v>
       </c>
       <c r="C17">
+        <v>0.17248066919999999</v>
+      </c>
+      <c r="D17">
+        <v>0.105550936486662</v>
+      </c>
+      <c r="E17">
         <v>0.222177571063504</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>0.34646356227077202</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>15</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I17" t="s">
         <v>19</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>0.346463562</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>4.9362873000000002E-2</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>-3.4503009999999998E-3</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>3.4726398629999999</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>0.57322002100000002</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>1.7961395000000002E-2</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <v>-3.6596305000000003E-2</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>6.3567725859999999</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="21" customHeight="1"/>
-    <row r="19" spans="1:15">
-      <c r="B19" s="3"/>
-      <c r="C19" s="5" t="s">
+    <row r="18" spans="1:17" ht="21" customHeight="1"/>
+    <row r="19" spans="1:17">
+      <c r="J19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" t="s">
+        <v>25</v>
+      </c>
+      <c r="P19" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="I20" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20">
+        <v>0.61013695499999998</v>
+      </c>
+      <c r="K20">
+        <v>1.4739466E-2</v>
+      </c>
+      <c r="L20">
+        <v>-3.9997230000000002E-2</v>
+      </c>
+      <c r="M20">
+        <v>2.6256448000000002E-2</v>
+      </c>
+      <c r="N20">
+        <v>0.61163749700000003</v>
+      </c>
+      <c r="O20">
+        <v>1.461688E-2</v>
+      </c>
+      <c r="P20">
+        <v>-4.0126625999999999E-2</v>
+      </c>
+      <c r="Q20">
+        <v>1.66558E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="I21" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21">
+        <v>0.607187896</v>
+      </c>
+      <c r="K21">
+        <v>1.4982241E-2</v>
+      </c>
+      <c r="L21">
+        <v>-3.9740968000000002E-2</v>
+      </c>
+      <c r="M21">
+        <v>-2.6428340000000002E-3</v>
+      </c>
+      <c r="N21">
+        <v>0.60600168399999998</v>
+      </c>
+      <c r="O21">
+        <v>1.5080589E-2</v>
+      </c>
+      <c r="P21">
+        <v>-3.9637156999999999E-2</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>-1.68E-6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="I22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>3.7429949999999998E-3</v>
+      </c>
+      <c r="K22">
+        <v>0.38091660300000002</v>
+      </c>
+      <c r="L22">
+        <v>0.34652308100000001</v>
+      </c>
+      <c r="M22">
+        <v>-3.6133530000000001E-3</v>
+      </c>
+      <c r="N22">
+        <v>1.4398123000000001E-2</v>
+      </c>
+      <c r="O22">
+        <v>0.28950460099999997</v>
+      </c>
+      <c r="P22">
+        <v>0.25003263399999998</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>-2.2199999999999999E-6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="I23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23">
+        <v>0.42411586099999998</v>
+      </c>
+      <c r="K23">
+        <v>3.5831804000000002E-2</v>
+      </c>
+      <c r="L23">
+        <v>-1.7733096E-2</v>
+      </c>
+      <c r="M23">
+        <v>-1.370226E-3</v>
+      </c>
+      <c r="N23">
+        <v>0.52470681399999997</v>
+      </c>
+      <c r="O23">
+        <v>2.2846117999999999E-2</v>
+      </c>
+      <c r="P23">
+        <v>-3.1440208999999997E-2</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>-9.7699999999999992E-7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="I24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24">
+        <v>0.15714910300000001</v>
+      </c>
+      <c r="K24">
+        <v>0.108001479</v>
+      </c>
+      <c r="L24">
+        <v>5.8446006000000002E-2</v>
+      </c>
+      <c r="M24">
+        <v>-0.45575929999999998</v>
+      </c>
+      <c r="N24">
+        <v>6.1644846000000003E-2</v>
+      </c>
+      <c r="O24">
+        <v>0.180777618</v>
+      </c>
+      <c r="P24">
+        <v>0.135265263</v>
+      </c>
+      <c r="Q24">
+        <v>-0.113248796</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="I25" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25">
+        <v>0.104601928</v>
+      </c>
+      <c r="K25">
+        <v>0.13963260399999999</v>
+      </c>
+      <c r="L25">
+        <v>9.1834416000000002E-2</v>
+      </c>
+      <c r="M25">
+        <v>5.2572003299999999</v>
+      </c>
+      <c r="N25">
+        <v>0.34368284700000001</v>
+      </c>
+      <c r="O25">
+        <v>4.9920649999999997E-2</v>
+      </c>
+      <c r="P25">
+        <v>-2.861536E-3</v>
+      </c>
+      <c r="Q25">
+        <v>7.267884842</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="I26" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26">
+        <v>0.92482936100000002</v>
+      </c>
+      <c r="K26">
+        <v>5.0836800000000004E-4</v>
+      </c>
+      <c r="L26">
+        <v>-5.5018945E-2</v>
+      </c>
+      <c r="M26">
+        <v>-0.27519373499999999</v>
+      </c>
+      <c r="N26">
+        <v>0.74729566400000003</v>
+      </c>
+      <c r="O26">
+        <v>5.9123839999999997E-3</v>
+      </c>
+      <c r="P26">
+        <v>-4.9314706E-2</v>
+      </c>
+      <c r="Q26">
+        <v>-2.640719008</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="I27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J27">
+        <v>0.32130171800000001</v>
+      </c>
+      <c r="K27">
+        <v>5.4628804000000003E-2</v>
+      </c>
+      <c r="L27">
+        <v>2.1081820000000001E-3</v>
+      </c>
+      <c r="M27">
+        <v>3.0465367790000002</v>
+      </c>
+      <c r="N27">
+        <v>0.16281253700000001</v>
+      </c>
+      <c r="O27">
+        <v>0.10527088</v>
+      </c>
+      <c r="P27">
+        <v>5.5563706999999997E-2</v>
+      </c>
+      <c r="Q27">
+        <v>13.817874659999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="I28" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28">
+        <v>0.346463562</v>
+      </c>
+      <c r="K28">
+        <v>4.9362873000000002E-2</v>
+      </c>
+      <c r="L28">
+        <v>-3.4503009999999998E-3</v>
+      </c>
+      <c r="M28">
+        <v>3.4726398629999999</v>
+      </c>
+      <c r="N28">
+        <v>0.57322002100000002</v>
+      </c>
+      <c r="O28">
+        <v>1.7961395000000002E-2</v>
+      </c>
+      <c r="P28">
+        <v>-3.6596305000000003E-2</v>
+      </c>
+      <c r="Q28">
+        <v>6.3567725859999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="I30" s="3"/>
+      <c r="J30" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="B31" s="3"/>
+      <c r="C31" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="F31" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19" t="s">
-        <v>23</v>
-      </c>
-      <c r="L19" t="s">
-        <v>24</v>
-      </c>
-      <c r="M19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N19" t="s">
-        <v>26</v>
-      </c>
-      <c r="O19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0.121406203246561</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0.61013695527990097</v>
-      </c>
-      <c r="G20" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20">
-        <v>0.61013695499999998</v>
-      </c>
-      <c r="I20">
-        <v>1.4739466E-2</v>
-      </c>
-      <c r="J20">
-        <v>-3.9997230000000002E-2</v>
-      </c>
-      <c r="K20">
-        <v>2.6256448000000002E-2</v>
-      </c>
-      <c r="L20">
-        <v>0.61163749700000003</v>
-      </c>
-      <c r="M20">
-        <v>1.461688E-2</v>
-      </c>
-      <c r="N20">
-        <v>-4.0126625999999999E-2</v>
-      </c>
-      <c r="O20">
-        <v>1.66558E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="4">
-        <v>-0.12240196325991901</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0.60718789614871405</v>
-      </c>
-      <c r="G21" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21">
-        <v>0.607187896</v>
-      </c>
-      <c r="I21">
-        <v>1.4982241E-2</v>
-      </c>
-      <c r="J21">
-        <v>-3.9740968000000002E-2</v>
-      </c>
-      <c r="K21">
-        <v>-2.6428340000000002E-3</v>
-      </c>
-      <c r="L21">
-        <v>0.60600168399999998</v>
-      </c>
-      <c r="M21">
-        <v>1.5080589E-2</v>
-      </c>
-      <c r="N21">
-        <v>-3.9637156999999999E-2</v>
-      </c>
-      <c r="O21" s="2">
-        <v>-1.68E-6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="4">
-        <v>-0.61718441596542395</v>
-      </c>
-      <c r="D22" s="4">
-        <v>3.7429946650656101E-3</v>
-      </c>
-      <c r="G22" t="s">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>3.7429949999999998E-3</v>
-      </c>
-      <c r="I22">
-        <v>0.38091660300000002</v>
-      </c>
-      <c r="J22">
-        <v>0.34652308100000001</v>
-      </c>
-      <c r="K22">
-        <v>-3.6133530000000001E-3</v>
-      </c>
-      <c r="L22">
-        <v>1.4398123000000001E-2</v>
-      </c>
-      <c r="M22">
-        <v>0.28950460099999997</v>
-      </c>
-      <c r="N22">
-        <v>0.25003263399999998</v>
-      </c>
-      <c r="O22" s="2">
-        <v>-2.2199999999999999E-6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="B23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="4">
-        <v>-0.189292904559693</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0.42411586107346699</v>
-      </c>
-      <c r="G23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23">
-        <v>0.42411586099999998</v>
-      </c>
-      <c r="I23">
-        <v>3.5831804000000002E-2</v>
-      </c>
-      <c r="J23">
-        <v>-1.7733096E-2</v>
-      </c>
-      <c r="K23">
-        <v>-1.370226E-3</v>
-      </c>
-      <c r="L23">
-        <v>0.52470681399999997</v>
-      </c>
-      <c r="M23">
-        <v>2.2846117999999999E-2</v>
-      </c>
-      <c r="N23">
-        <v>-3.1440208999999997E-2</v>
-      </c>
-      <c r="O23" s="2">
-        <v>-9.7699999999999992E-7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="B24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="4">
-        <v>-0.328635785460202</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0.15714910344931199</v>
-      </c>
-      <c r="G24" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24">
-        <v>0.15714910300000001</v>
-      </c>
-      <c r="I24">
-        <v>0.108001479</v>
-      </c>
-      <c r="J24">
-        <v>5.8446006000000002E-2</v>
-      </c>
-      <c r="K24">
-        <v>-0.45575929999999998</v>
-      </c>
-      <c r="L24">
-        <v>6.1644846000000003E-2</v>
-      </c>
-      <c r="M24">
-        <v>0.180777618</v>
-      </c>
-      <c r="N24">
-        <v>0.135265263</v>
-      </c>
-      <c r="O24">
-        <v>-0.113248796</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0.373674462970431</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0.104601927572138</v>
-      </c>
-      <c r="G25" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25">
-        <v>0.104601928</v>
-      </c>
-      <c r="I25">
-        <v>0.13963260399999999</v>
-      </c>
-      <c r="J25">
-        <v>9.1834416000000002E-2</v>
-      </c>
-      <c r="K25">
-        <v>5.2572003299999999</v>
-      </c>
-      <c r="L25">
-        <v>0.34368284700000001</v>
-      </c>
-      <c r="M25">
-        <v>4.9920649999999997E-2</v>
-      </c>
-      <c r="N25">
-        <v>-2.861536E-3</v>
-      </c>
-      <c r="O25">
-        <v>7.267884842</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="4">
-        <v>-2.2547023984628298E-2</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0.92482936080186295</v>
-      </c>
-      <c r="G26" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26">
-        <v>0.92482936100000002</v>
-      </c>
-      <c r="I26">
-        <v>5.0836800000000004E-4</v>
-      </c>
-      <c r="J26">
-        <v>-5.5018945E-2</v>
-      </c>
-      <c r="K26">
-        <v>-0.27519373499999999</v>
-      </c>
-      <c r="L26">
-        <v>0.74729566400000003</v>
-      </c>
-      <c r="M26">
-        <v>5.9123839999999997E-3</v>
-      </c>
-      <c r="N26">
-        <v>-4.9314706E-2</v>
-      </c>
-      <c r="O26">
-        <v>-2.640719008</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="4">
-        <v>0.23372805636411101</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0.32130171775522698</v>
-      </c>
-      <c r="G27" t="s">
-        <v>30</v>
-      </c>
-      <c r="H27">
-        <v>0.32130171800000001</v>
-      </c>
-      <c r="I27">
-        <v>5.4628804000000003E-2</v>
-      </c>
-      <c r="J27">
-        <v>2.1081820000000001E-3</v>
-      </c>
-      <c r="K27">
-        <v>3.0465367790000002</v>
-      </c>
-      <c r="L27">
-        <v>0.16281253700000001</v>
-      </c>
-      <c r="M27">
-        <v>0.10527088</v>
-      </c>
-      <c r="N27">
-        <v>5.5563706999999997E-2</v>
-      </c>
-      <c r="O27">
-        <v>13.817874659999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="4">
-        <v>0.222177571063504</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0.34646356227077202</v>
-      </c>
-      <c r="G28" t="s">
-        <v>31</v>
-      </c>
-      <c r="H28">
-        <v>0.346463562</v>
-      </c>
-      <c r="I28">
-        <v>4.9362873000000002E-2</v>
-      </c>
-      <c r="J28">
-        <v>-3.4503009999999998E-3</v>
-      </c>
-      <c r="K28">
-        <v>3.4726398629999999</v>
-      </c>
-      <c r="L28">
-        <v>0.57322002100000002</v>
-      </c>
-      <c r="M28">
-        <v>1.7961395000000002E-2</v>
-      </c>
-      <c r="N28">
-        <v>-3.6596305000000003E-2</v>
-      </c>
-      <c r="O28">
-        <v>6.3567725859999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="G30" s="6"/>
-      <c r="H30" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K30" s="7"/>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="G31" s="6"/>
-      <c r="H31" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="I31" s="3"/>
       <c r="J31" s="5" t="s">
         <v>38</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="G32" t="s">
+      <c r="L31" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="B32" t="s">
         <v>34</v>
       </c>
-      <c r="H32" s="4">
+      <c r="C32" s="6">
+        <v>75.511427333499995</v>
+      </c>
+      <c r="D32" s="6">
+        <v>7.6282781956801102</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0.121406203246561</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0.61013695527990097</v>
+      </c>
+      <c r="I32" t="s">
+        <v>34</v>
+      </c>
+      <c r="J32" s="4">
         <v>1.4739466E-2</v>
       </c>
-      <c r="I32" s="4">
+      <c r="K32" s="4">
         <v>0.61013695499999998</v>
       </c>
-      <c r="J32" s="4">
+      <c r="L32" s="4">
         <v>1.461688E-2</v>
       </c>
-      <c r="K32" s="4">
+      <c r="M32" s="4">
         <v>0.61163749700000003</v>
       </c>
-      <c r="O32" s="2"/>
-    </row>
-    <row r="33" spans="7:15">
-      <c r="G33" t="s">
+      <c r="Q32" s="2"/>
+    </row>
+    <row r="33" spans="2:17">
+      <c r="B33" t="s">
         <v>35</v>
       </c>
-      <c r="H33" s="4">
+      <c r="C33" s="6">
+        <v>802.25999560000002</v>
+      </c>
+      <c r="D33" s="6">
+        <v>76.408220444873905</v>
+      </c>
+      <c r="E33" s="4">
+        <v>-0.12240196325991901</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0.60718789614871405</v>
+      </c>
+      <c r="I33" t="s">
+        <v>35</v>
+      </c>
+      <c r="J33" s="4">
         <v>1.4982241E-2</v>
       </c>
-      <c r="I33" s="4">
+      <c r="K33" s="4">
         <v>0.607187896</v>
       </c>
-      <c r="J33" s="4">
+      <c r="L33" s="4">
         <v>1.5080589E-2</v>
       </c>
-      <c r="K33" s="4">
+      <c r="M33" s="4">
         <v>0.60600168399999998</v>
       </c>
-      <c r="O33" s="2"/>
-    </row>
-    <row r="34" spans="7:15">
-      <c r="G34" t="s">
+      <c r="Q33" s="2"/>
+    </row>
+    <row r="34" spans="2:17">
+      <c r="B34" t="s">
         <v>0</v>
       </c>
-      <c r="H34" s="4">
+      <c r="C34" s="6">
+        <v>478.7</v>
+      </c>
+      <c r="D34" s="6">
+        <v>281.790365342749</v>
+      </c>
+      <c r="E34" s="4">
+        <v>-0.61718441596542395</v>
+      </c>
+      <c r="F34" s="4">
+        <v>3.7429946650656101E-3</v>
+      </c>
+      <c r="I34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J34" s="4">
         <v>0.38091660300000002</v>
       </c>
-      <c r="I34" s="4">
+      <c r="K34" s="4">
         <v>3.7429949999999998E-3</v>
       </c>
-      <c r="J34" s="4">
+      <c r="L34" s="4">
         <v>0.28950460099999997</v>
       </c>
-      <c r="K34" s="4">
+      <c r="M34" s="4">
         <v>1.4398123000000001E-2</v>
       </c>
-      <c r="O34" s="2"/>
-    </row>
-    <row r="35" spans="7:15">
-      <c r="G35" t="s">
+      <c r="Q34" s="2"/>
+    </row>
+    <row r="35" spans="2:17">
+      <c r="B35" t="s">
         <v>32</v>
       </c>
-      <c r="H35" s="4">
+      <c r="C35" s="6">
+        <v>256.89999999999998</v>
+      </c>
+      <c r="D35" s="6">
+        <v>227.910267429969</v>
+      </c>
+      <c r="E35" s="4">
+        <v>-0.189292904559693</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0.42411586107346699</v>
+      </c>
+      <c r="I35" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35" s="4">
         <v>3.5831804000000002E-2</v>
       </c>
-      <c r="I35" s="4">
+      <c r="K35" s="4">
         <v>0.42411586099999998</v>
       </c>
-      <c r="J35" s="4">
+      <c r="L35" s="4">
         <v>2.2846117999999999E-2</v>
       </c>
-      <c r="K35" s="4">
+      <c r="M35" s="4">
         <v>0.52470681399999997</v>
       </c>
     </row>
-    <row r="36" spans="7:15">
-      <c r="G36" t="s">
+    <row r="36" spans="2:17">
+      <c r="B36" t="s">
         <v>33</v>
       </c>
-      <c r="H36" s="4">
+      <c r="C36" s="6">
+        <v>2.4623499999999998</v>
+      </c>
+      <c r="D36" s="6">
+        <v>1.1895999443090099</v>
+      </c>
+      <c r="E36" s="4">
+        <v>-0.328635785460202</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0.15714910344931199</v>
+      </c>
+      <c r="I36" t="s">
+        <v>33</v>
+      </c>
+      <c r="J36" s="4">
         <v>0.108001479</v>
       </c>
-      <c r="I36" s="4">
+      <c r="K36" s="4">
         <v>0.15714910300000001</v>
       </c>
-      <c r="J36" s="4">
+      <c r="L36" s="4">
         <v>0.180777618</v>
       </c>
-      <c r="K36" s="4">
+      <c r="M36" s="4">
         <v>6.1644846000000003E-2</v>
       </c>
     </row>
-    <row r="37" spans="7:15">
-      <c r="G37" t="s">
-        <v>28</v>
-      </c>
-      <c r="H37" s="4">
+    <row r="37" spans="2:17">
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0.19578319289999899</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0.117262868887656</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0.373674462970431</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0.104601927572138</v>
+      </c>
+      <c r="I37" t="s">
+        <v>41</v>
+      </c>
+      <c r="J37" s="4">
         <v>0.13963260399999999</v>
       </c>
-      <c r="I37" s="4">
+      <c r="K37" s="4">
         <v>0.104601928</v>
       </c>
-      <c r="J37" s="4">
+      <c r="L37" s="4">
         <v>4.9920649999999997E-2</v>
       </c>
-      <c r="K37" s="4">
+      <c r="M37" s="4">
         <v>0.34368284700000001</v>
       </c>
     </row>
-    <row r="38" spans="7:15">
-      <c r="G38" t="s">
-        <v>29</v>
-      </c>
-      <c r="H38" s="4">
+    <row r="38" spans="2:17">
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0.16526584969999999</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0.13516750803249999</v>
+      </c>
+      <c r="E38" s="4">
+        <v>-2.2547023984628298E-2</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0.92482936080186295</v>
+      </c>
+      <c r="I38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J38" s="4">
         <v>5.0836800000000004E-4</v>
       </c>
-      <c r="I38" s="4">
+      <c r="K38" s="4">
         <v>0.92482936100000002</v>
       </c>
-      <c r="J38" s="4">
+      <c r="L38" s="4">
         <v>5.9123839999999997E-3</v>
       </c>
-      <c r="K38" s="4">
+      <c r="M38" s="4">
         <v>0.74729566400000003</v>
       </c>
     </row>
-    <row r="39" spans="7:15">
-      <c r="G39" t="s">
-        <v>30</v>
-      </c>
-      <c r="H39" s="4">
+    <row r="39" spans="2:17">
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0.15639296499999999</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0.126568619932586</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0.23372805636411101</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0.32130171775522698</v>
+      </c>
+      <c r="I39" t="s">
+        <v>43</v>
+      </c>
+      <c r="J39" s="4">
         <v>5.4628804000000003E-2</v>
       </c>
-      <c r="I39" s="4">
+      <c r="K39" s="4">
         <v>0.32130171800000001</v>
       </c>
-      <c r="J39" s="4">
+      <c r="L39" s="4">
         <v>0.10527088</v>
       </c>
-      <c r="K39" s="4">
+      <c r="M39" s="4">
         <v>0.16281253700000001</v>
       </c>
     </row>
-    <row r="40" spans="7:15">
-      <c r="G40" t="s">
+    <row r="40" spans="2:17">
+      <c r="B40" t="s">
         <v>31</v>
       </c>
-      <c r="H40" s="4">
+      <c r="C40" s="6">
+        <v>0.17248066919999999</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0.105550936486662</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0.222177571063504</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0.34646356227077202</v>
+      </c>
+      <c r="I40" t="s">
+        <v>31</v>
+      </c>
+      <c r="J40" s="4">
         <v>4.9362873000000002E-2</v>
       </c>
-      <c r="I40" s="4">
+      <c r="K40" s="4">
         <v>0.346463562</v>
       </c>
-      <c r="J40" s="4">
+      <c r="L40" s="4">
         <v>1.7961395000000002E-2</v>
       </c>
-      <c r="K40" s="4">
+      <c r="M40" s="4">
         <v>0.57322002100000002</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="G30:G31"/>
-  </mergeCells>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/csv/図の作成用.xlsx
+++ b/csv/図の作成用.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miyakooti/repositories/arai_MATLAB_program/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535D4420-1CA9-5746-B6DD-11E56AAF174C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDB3B20-B988-B84A-A0ED-F8CF491F080F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -204,7 +204,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="186" formatCode="0.000"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -820,7 +820,7 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1186,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="90" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="N28" sqref="N24:N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2390,6 +2390,10 @@
       <c r="F32" s="4">
         <v>0.61013695527990097</v>
       </c>
+      <c r="G32" t="str">
+        <f>IF(F32="","",IF(F32&lt;0.01,"**",IF(F32&lt;0.05,"*",IF(F32&lt;0.1,"†",""))))</f>
+        <v/>
+      </c>
       <c r="I32" t="s">
         <v>34</v>
       </c>
@@ -2404,6 +2408,14 @@
       </c>
       <c r="M32" s="4">
         <v>0.61163749700000003</v>
+      </c>
+      <c r="N32" t="str">
+        <f>IF(K32="","",IF(K32&lt;0.01,"**",IF(K32&lt;0.05,"*",IF(K32&lt;0.1,"†",""))))</f>
+        <v/>
+      </c>
+      <c r="O32" t="str">
+        <f>IF(M32="","",IF(M32&lt;0.01,"**",IF(M32&lt;0.05,"*",IF(M32&lt;0.1,"†",""))))</f>
+        <v/>
       </c>
       <c r="Q32" s="2"/>
     </row>
@@ -2423,6 +2435,10 @@
       <c r="F33" s="4">
         <v>0.60718789614871405</v>
       </c>
+      <c r="G33" t="str">
+        <f t="shared" ref="G33:G40" si="0">IF(F33="","",IF(F33&lt;0.01,"**",IF(F33&lt;0.05,"*",IF(F33&lt;0.1,"†",""))))</f>
+        <v/>
+      </c>
       <c r="I33" t="s">
         <v>35</v>
       </c>
@@ -2437,6 +2453,14 @@
       </c>
       <c r="M33" s="4">
         <v>0.60600168399999998</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" ref="N33:N40" si="1">IF(K33="","",IF(K33&lt;0.01,"**",IF(K33&lt;0.05,"*",IF(K33&lt;0.1,"†",""))))</f>
+        <v/>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" ref="O33:O40" si="2">IF(M33="","",IF(M33&lt;0.01,"**",IF(M33&lt;0.05,"*",IF(M33&lt;0.1,"†",""))))</f>
+        <v/>
       </c>
       <c r="Q33" s="2"/>
     </row>
@@ -2456,6 +2480,10 @@
       <c r="F34" s="4">
         <v>3.7429946650656101E-3</v>
       </c>
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>**</v>
+      </c>
       <c r="I34" t="s">
         <v>0</v>
       </c>
@@ -2470,6 +2498,14 @@
       </c>
       <c r="M34" s="4">
         <v>1.4398123000000001E-2</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="1"/>
+        <v>**</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="2"/>
+        <v>*</v>
       </c>
       <c r="Q34" s="2"/>
     </row>
@@ -2489,6 +2525,10 @@
       <c r="F35" s="4">
         <v>0.42411586107346699</v>
       </c>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I35" t="s">
         <v>32</v>
       </c>
@@ -2503,6 +2543,14 @@
       </c>
       <c r="M35" s="4">
         <v>0.52470681399999997</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="36" spans="2:17">
@@ -2521,6 +2569,10 @@
       <c r="F36" s="4">
         <v>0.15714910344931199</v>
       </c>
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I36" t="s">
         <v>33</v>
       </c>
@@ -2535,6 +2587,14 @@
       </c>
       <c r="M36" s="4">
         <v>6.1644846000000003E-2</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O36" t="str">
+        <f>IF(M36="","",IF(M36&lt;0.01,"**",IF(M36&lt;0.05,"*",IF(M36&lt;0.1,"†",""))))</f>
+        <v>†</v>
       </c>
     </row>
     <row r="37" spans="2:17">
@@ -2553,6 +2613,10 @@
       <c r="F37" s="4">
         <v>0.104601927572138</v>
       </c>
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I37" t="s">
         <v>41</v>
       </c>
@@ -2567,6 +2631,14 @@
       </c>
       <c r="M37" s="4">
         <v>0.34368284700000001</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="38" spans="2:17">
@@ -2585,6 +2657,10 @@
       <c r="F38" s="4">
         <v>0.92482936080186295</v>
       </c>
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I38" t="s">
         <v>42</v>
       </c>
@@ -2599,6 +2675,14 @@
       </c>
       <c r="M38" s="4">
         <v>0.74729566400000003</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="39" spans="2:17">
@@ -2617,6 +2701,10 @@
       <c r="F39" s="4">
         <v>0.32130171775522698</v>
       </c>
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I39" t="s">
         <v>43</v>
       </c>
@@ -2631,6 +2719,14 @@
       </c>
       <c r="M39" s="4">
         <v>0.16281253700000001</v>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="40" spans="2:17">
@@ -2649,6 +2745,10 @@
       <c r="F40" s="4">
         <v>0.34646356227077202</v>
       </c>
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I40" t="s">
         <v>31</v>
       </c>
@@ -2663,6 +2763,14 @@
       </c>
       <c r="M40" s="4">
         <v>0.57322002100000002</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/csv/図の作成用.xlsx
+++ b/csv/図の作成用.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miyakooti/repositories/arai_MATLAB_program/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDB3B20-B988-B84A-A0ED-F8CF491F080F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6734DF-C48C-7A43-972D-CEA9CE16CC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9600" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="t" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="61">
   <si>
     <t>LF</t>
     <phoneticPr fontId="18"/>
@@ -196,6 +196,52 @@
   <si>
     <t>SD</t>
     <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>値だけコピーしてpの部分だけ参照して結合する</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">アタイ </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">サンショウシテケツゴウスル </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>BPM</t>
+  </si>
+  <si>
+    <t>IBI</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>LF/HF</t>
+  </si>
+  <si>
+    <t>FC3_PLI_diff</t>
+  </si>
+  <si>
+    <t>FC4_PLI_diff</t>
+  </si>
+  <si>
+    <t>FCz_PLI_diff</t>
+  </si>
+  <si>
+    <t>mean_PLI</t>
+  </si>
+  <si>
+    <t>Linear model</t>
+  </si>
+  <si>
+    <t>Quadratic model</t>
+  </si>
+  <si>
+    <t>R2</t>
   </si>
 </sst>
 </file>
@@ -376,7 +422,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -559,6 +605,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,7 +859,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -828,6 +880,12 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1184,10 +1242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="N28" sqref="N24:N28"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2379,18 +2437,22 @@
         <v>34</v>
       </c>
       <c r="C32" s="6">
-        <v>75.511427333499995</v>
+        <f>ROUND(C2,2)</f>
+        <v>75.510000000000005</v>
       </c>
       <c r="D32" s="6">
-        <v>7.6282781956801102</v>
+        <f>ROUND(D2,2)</f>
+        <v>7.63</v>
       </c>
       <c r="E32" s="4">
-        <v>0.121406203246561</v>
+        <f>ROUND(E2,3)</f>
+        <v>0.121</v>
       </c>
       <c r="F32" s="4">
-        <v>0.61013695527990097</v>
-      </c>
-      <c r="G32" t="str">
+        <f>ROUND(F2,3)</f>
+        <v>0.61</v>
+      </c>
+      <c r="G32" s="8" t="str">
         <f>IF(F32="","",IF(F32&lt;0.01,"**",IF(F32&lt;0.05,"*",IF(F32&lt;0.1,"†",""))))</f>
         <v/>
       </c>
@@ -2398,22 +2460,26 @@
         <v>34</v>
       </c>
       <c r="J32" s="4">
-        <v>1.4739466E-2</v>
+        <f>ROUND(K2,3)</f>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="K32" s="4">
-        <v>0.61013695499999998</v>
+        <f>ROUND(J2,3)</f>
+        <v>0.61</v>
       </c>
       <c r="L32" s="4">
-        <v>1.461688E-2</v>
+        <f>ROUND(O2,3)</f>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="M32" s="4">
-        <v>0.61163749700000003</v>
-      </c>
-      <c r="N32" t="str">
+        <f>ROUND(N2,3)</f>
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="N32" s="8" t="str">
         <f>IF(K32="","",IF(K32&lt;0.01,"**",IF(K32&lt;0.05,"*",IF(K32&lt;0.1,"†",""))))</f>
         <v/>
       </c>
-      <c r="O32" t="str">
+      <c r="O32" s="8" t="str">
         <f>IF(M32="","",IF(M32&lt;0.01,"**",IF(M32&lt;0.05,"*",IF(M32&lt;0.1,"†",""))))</f>
         <v/>
       </c>
@@ -2424,42 +2490,50 @@
         <v>35</v>
       </c>
       <c r="C33" s="6">
-        <v>802.25999560000002</v>
+        <f t="shared" ref="C33:D36" si="0">ROUND(C3,2)</f>
+        <v>802.26</v>
       </c>
       <c r="D33" s="6">
-        <v>76.408220444873905</v>
+        <f t="shared" si="0"/>
+        <v>76.41</v>
       </c>
       <c r="E33" s="4">
-        <v>-0.12240196325991901</v>
+        <f t="shared" ref="E33:F36" si="1">ROUND(E3,3)</f>
+        <v>-0.122</v>
       </c>
       <c r="F33" s="4">
-        <v>0.60718789614871405</v>
-      </c>
-      <c r="G33" t="str">
-        <f t="shared" ref="G33:G40" si="0">IF(F33="","",IF(F33&lt;0.01,"**",IF(F33&lt;0.05,"*",IF(F33&lt;0.1,"†",""))))</f>
+        <f t="shared" si="1"/>
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="G33" s="8" t="str">
+        <f t="shared" ref="G33:G40" si="2">IF(F33="","",IF(F33&lt;0.01,"**",IF(F33&lt;0.05,"*",IF(F33&lt;0.1,"†",""))))</f>
         <v/>
       </c>
       <c r="I33" t="s">
         <v>35</v>
       </c>
       <c r="J33" s="4">
-        <v>1.4982241E-2</v>
+        <f t="shared" ref="J33:J36" si="3">ROUND(K3,3)</f>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="K33" s="4">
-        <v>0.607187896</v>
+        <f t="shared" ref="K33:K36" si="4">ROUND(J3,3)</f>
+        <v>0.60699999999999998</v>
       </c>
       <c r="L33" s="4">
-        <v>1.5080589E-2</v>
+        <f t="shared" ref="L33:L36" si="5">ROUND(O3,3)</f>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="M33" s="4">
-        <v>0.60600168399999998</v>
-      </c>
-      <c r="N33" t="str">
-        <f t="shared" ref="N33:N40" si="1">IF(K33="","",IF(K33&lt;0.01,"**",IF(K33&lt;0.05,"*",IF(K33&lt;0.1,"†",""))))</f>
+        <f t="shared" ref="M33:M36" si="6">ROUND(N3,3)</f>
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="N33" s="8" t="str">
+        <f t="shared" ref="N33:N40" si="7">IF(K33="","",IF(K33&lt;0.01,"**",IF(K33&lt;0.05,"*",IF(K33&lt;0.1,"†",""))))</f>
         <v/>
       </c>
-      <c r="O33" t="str">
-        <f t="shared" ref="O33:O40" si="2">IF(M33="","",IF(M33&lt;0.01,"**",IF(M33&lt;0.05,"*",IF(M33&lt;0.1,"†",""))))</f>
+      <c r="O33" s="8" t="str">
+        <f t="shared" ref="O33:O40" si="8">IF(M33="","",IF(M33&lt;0.01,"**",IF(M33&lt;0.05,"*",IF(M33&lt;0.1,"†",""))))</f>
         <v/>
       </c>
       <c r="Q33" s="2"/>
@@ -2469,42 +2543,50 @@
         <v>0</v>
       </c>
       <c r="C34" s="6">
+        <f t="shared" si="0"/>
         <v>478.7</v>
       </c>
       <c r="D34" s="6">
-        <v>281.790365342749</v>
+        <f t="shared" si="0"/>
+        <v>281.79000000000002</v>
       </c>
       <c r="E34" s="4">
-        <v>-0.61718441596542395</v>
+        <f>ROUND(E4,3)</f>
+        <v>-0.61699999999999999</v>
       </c>
       <c r="F34" s="4">
-        <v>3.7429946650656101E-3</v>
-      </c>
-      <c r="G34" t="str">
-        <f t="shared" si="0"/>
+        <f>ROUND(F4,3)</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G34" s="8" t="str">
+        <f t="shared" si="2"/>
         <v>**</v>
       </c>
       <c r="I34" t="s">
         <v>0</v>
       </c>
       <c r="J34" s="4">
-        <v>0.38091660300000002</v>
+        <f t="shared" si="3"/>
+        <v>0.38100000000000001</v>
       </c>
       <c r="K34" s="4">
-        <v>3.7429949999999998E-3</v>
+        <f t="shared" si="4"/>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="L34" s="4">
-        <v>0.28950460099999997</v>
+        <f t="shared" si="5"/>
+        <v>0.28999999999999998</v>
       </c>
       <c r="M34" s="4">
-        <v>1.4398123000000001E-2</v>
-      </c>
-      <c r="N34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
+        <v>1.4E-2</v>
+      </c>
+      <c r="N34" s="8" t="str">
+        <f t="shared" si="7"/>
         <v>**</v>
       </c>
-      <c r="O34" t="str">
-        <f t="shared" si="2"/>
+      <c r="O34" s="8" t="str">
+        <f t="shared" si="8"/>
         <v>*</v>
       </c>
       <c r="Q34" s="2"/>
@@ -2514,42 +2596,50 @@
         <v>32</v>
       </c>
       <c r="C35" s="6">
+        <f t="shared" si="0"/>
         <v>256.89999999999998</v>
       </c>
       <c r="D35" s="6">
-        <v>227.910267429969</v>
+        <f t="shared" si="0"/>
+        <v>227.91</v>
       </c>
       <c r="E35" s="4">
-        <v>-0.189292904559693</v>
+        <f t="shared" si="1"/>
+        <v>-0.189</v>
       </c>
       <c r="F35" s="4">
-        <v>0.42411586107346699</v>
-      </c>
-      <c r="G35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="G35" s="8" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I35" t="s">
         <v>32</v>
       </c>
       <c r="J35" s="4">
-        <v>3.5831804000000002E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="K35" s="4">
-        <v>0.42411586099999998</v>
+        <f t="shared" si="4"/>
+        <v>0.42399999999999999</v>
       </c>
       <c r="L35" s="4">
-        <v>2.2846117999999999E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.3E-2</v>
       </c>
       <c r="M35" s="4">
-        <v>0.52470681399999997</v>
-      </c>
-      <c r="N35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="N35" s="8" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="O35" t="str">
-        <f t="shared" si="2"/>
+      <c r="O35" s="8" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2558,41 +2648,49 @@
         <v>33</v>
       </c>
       <c r="C36" s="6">
-        <v>2.4623499999999998</v>
+        <f t="shared" si="0"/>
+        <v>2.46</v>
       </c>
       <c r="D36" s="6">
-        <v>1.1895999443090099</v>
+        <f t="shared" si="0"/>
+        <v>1.19</v>
       </c>
       <c r="E36" s="4">
-        <v>-0.328635785460202</v>
+        <f t="shared" si="1"/>
+        <v>-0.32900000000000001</v>
       </c>
       <c r="F36" s="4">
-        <v>0.15714910344931199</v>
-      </c>
-      <c r="G36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>0.157</v>
+      </c>
+      <c r="G36" s="8" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I36" t="s">
         <v>33</v>
       </c>
       <c r="J36" s="4">
-        <v>0.108001479</v>
+        <f t="shared" si="3"/>
+        <v>0.108</v>
       </c>
       <c r="K36" s="4">
-        <v>0.15714910300000001</v>
+        <f t="shared" si="4"/>
+        <v>0.157</v>
       </c>
       <c r="L36" s="4">
-        <v>0.180777618</v>
+        <f t="shared" si="5"/>
+        <v>0.18099999999999999</v>
       </c>
       <c r="M36" s="4">
-        <v>6.1644846000000003E-2</v>
-      </c>
-      <c r="N36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
+        <v>6.2E-2</v>
+      </c>
+      <c r="N36" s="8" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="O36" t="str">
+      <c r="O36" s="8" t="str">
         <f>IF(M36="","",IF(M36&lt;0.01,"**",IF(M36&lt;0.05,"*",IF(M36&lt;0.1,"†",""))))</f>
         <v>†</v>
       </c>
@@ -2602,42 +2700,50 @@
         <v>41</v>
       </c>
       <c r="C37" s="6">
-        <v>0.19578319289999899</v>
+        <f>ROUND(C14,2)</f>
+        <v>0.2</v>
       </c>
       <c r="D37" s="6">
-        <v>0.117262868887656</v>
+        <f>ROUND(D14,2)</f>
+        <v>0.12</v>
       </c>
       <c r="E37" s="4">
-        <v>0.373674462970431</v>
+        <f>ROUND(E14,3)</f>
+        <v>0.374</v>
       </c>
       <c r="F37" s="4">
-        <v>0.104601927572138</v>
-      </c>
-      <c r="G37" t="str">
-        <f t="shared" si="0"/>
+        <f>ROUND(F14,3)</f>
+        <v>0.105</v>
+      </c>
+      <c r="G37" s="8" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I37" t="s">
         <v>41</v>
       </c>
       <c r="J37" s="4">
-        <v>0.13963260399999999</v>
+        <f>ROUND(K14,3)</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K37" s="4">
-        <v>0.104601928</v>
+        <f>ROUND(J14,3)</f>
+        <v>0.105</v>
       </c>
       <c r="L37" s="4">
-        <v>4.9920649999999997E-2</v>
+        <f>ROUND(O14,3)</f>
+        <v>0.05</v>
       </c>
       <c r="M37" s="4">
-        <v>0.34368284700000001</v>
-      </c>
-      <c r="N37" t="str">
-        <f t="shared" si="1"/>
+        <f>ROUND(N14,3)</f>
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="N37" s="8" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="O37" t="str">
-        <f t="shared" si="2"/>
+      <c r="O37" s="8" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2646,42 +2752,50 @@
         <v>42</v>
       </c>
       <c r="C38" s="6">
-        <v>0.16526584969999999</v>
+        <f t="shared" ref="C38:D40" si="9">ROUND(C15,2)</f>
+        <v>0.17</v>
       </c>
       <c r="D38" s="6">
-        <v>0.13516750803249999</v>
+        <f t="shared" si="9"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E38" s="4">
-        <v>-2.2547023984628298E-2</v>
+        <f t="shared" ref="E38:F40" si="10">ROUND(E15,3)</f>
+        <v>-2.3E-2</v>
       </c>
       <c r="F38" s="4">
-        <v>0.92482936080186295</v>
-      </c>
-      <c r="G38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="G38" s="8" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I38" t="s">
         <v>42</v>
       </c>
       <c r="J38" s="4">
-        <v>5.0836800000000004E-4</v>
+        <f t="shared" ref="J38:J40" si="11">ROUND(K15,3)</f>
+        <v>1E-3</v>
       </c>
       <c r="K38" s="4">
-        <v>0.92482936100000002</v>
+        <f t="shared" ref="K38:K40" si="12">ROUND(J15,3)</f>
+        <v>0.92500000000000004</v>
       </c>
       <c r="L38" s="4">
-        <v>5.9123839999999997E-3</v>
+        <f t="shared" ref="L38:L40" si="13">ROUND(O15,3)</f>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="M38" s="4">
-        <v>0.74729566400000003</v>
-      </c>
-      <c r="N38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M38:M40" si="14">ROUND(N15,3)</f>
+        <v>0.747</v>
+      </c>
+      <c r="N38" s="8" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="O38" t="str">
-        <f t="shared" si="2"/>
+      <c r="O38" s="8" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2690,42 +2804,50 @@
         <v>43</v>
       </c>
       <c r="C39" s="6">
-        <v>0.15639296499999999</v>
+        <f t="shared" si="9"/>
+        <v>0.16</v>
       </c>
       <c r="D39" s="6">
-        <v>0.126568619932586</v>
+        <f t="shared" si="9"/>
+        <v>0.13</v>
       </c>
       <c r="E39" s="4">
-        <v>0.23372805636411101</v>
+        <f t="shared" si="10"/>
+        <v>0.23400000000000001</v>
       </c>
       <c r="F39" s="4">
-        <v>0.32130171775522698</v>
-      </c>
-      <c r="G39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="G39" s="8" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I39" t="s">
         <v>43</v>
       </c>
       <c r="J39" s="4">
-        <v>5.4628804000000003E-2</v>
+        <f t="shared" si="11"/>
+        <v>5.5E-2</v>
       </c>
       <c r="K39" s="4">
-        <v>0.32130171800000001</v>
+        <f t="shared" si="12"/>
+        <v>0.32100000000000001</v>
       </c>
       <c r="L39" s="4">
-        <v>0.10527088</v>
+        <f t="shared" si="13"/>
+        <v>0.105</v>
       </c>
       <c r="M39" s="4">
-        <v>0.16281253700000001</v>
-      </c>
-      <c r="N39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="N39" s="8" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="O39" t="str">
-        <f t="shared" si="2"/>
+      <c r="O39" s="8" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2734,46 +2856,420 @@
         <v>31</v>
       </c>
       <c r="C40" s="6">
-        <v>0.17248066919999999</v>
+        <f t="shared" si="9"/>
+        <v>0.17</v>
       </c>
       <c r="D40" s="6">
-        <v>0.105550936486662</v>
+        <f t="shared" si="9"/>
+        <v>0.11</v>
       </c>
       <c r="E40" s="4">
-        <v>0.222177571063504</v>
+        <f t="shared" si="10"/>
+        <v>0.222</v>
       </c>
       <c r="F40" s="4">
-        <v>0.34646356227077202</v>
-      </c>
-      <c r="G40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="G40" s="8" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I40" t="s">
         <v>31</v>
       </c>
       <c r="J40" s="4">
+        <f t="shared" si="11"/>
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="K40" s="4">
+        <f t="shared" si="12"/>
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="L40" s="4">
+        <f t="shared" si="13"/>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="M40" s="4">
+        <f t="shared" si="14"/>
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="N40" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O40" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="2:17">
+      <c r="B42" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="2:17">
+      <c r="B43" s="3"/>
+      <c r="C43" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3"/>
+      <c r="J43" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M43" s="5"/>
+    </row>
+    <row r="44" spans="2:17">
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="6">
+        <v>75.511427333499995</v>
+      </c>
+      <c r="D44" s="6">
+        <v>7.6282781956801102</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0.121</v>
+      </c>
+      <c r="F44" s="4" t="str">
+        <f>F32&amp;G32</f>
+        <v>0.61</v>
+      </c>
+      <c r="I44" s="3"/>
+      <c r="J44" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17">
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="6">
+        <v>802.25999560000002</v>
+      </c>
+      <c r="D45" s="6">
+        <v>76.408220444873905</v>
+      </c>
+      <c r="E45" s="4">
+        <v>-0.122</v>
+      </c>
+      <c r="F45" s="4" t="str">
+        <f t="shared" ref="F45:F52" si="15">F33&amp;G33</f>
+        <v>0.607</v>
+      </c>
+      <c r="I45" t="s">
+        <v>49</v>
+      </c>
+      <c r="J45" s="4">
+        <v>1.4739466E-2</v>
+      </c>
+      <c r="K45" s="4" t="str">
+        <f>K32&amp;N32</f>
+        <v>0.61</v>
+      </c>
+      <c r="L45" s="4">
+        <v>1.461688E-2</v>
+      </c>
+      <c r="M45" s="4" t="str">
+        <f>M32&amp;O32</f>
+        <v>0.612</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17">
+      <c r="B46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="6">
+        <v>478.7</v>
+      </c>
+      <c r="D46" s="6">
+        <v>281.790365342749</v>
+      </c>
+      <c r="E46" s="4">
+        <v>-0.61699999999999999</v>
+      </c>
+      <c r="F46" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>0.004**</v>
+      </c>
+      <c r="I46" t="s">
+        <v>50</v>
+      </c>
+      <c r="J46" s="4">
+        <v>1.4982241E-2</v>
+      </c>
+      <c r="K46" s="4" t="str">
+        <f t="shared" ref="K46:K53" si="16">K33&amp;N33</f>
+        <v>0.607</v>
+      </c>
+      <c r="L46" s="4">
+        <v>1.5080589E-2</v>
+      </c>
+      <c r="M46" s="4" t="str">
+        <f t="shared" ref="M46:M53" si="17">M33&amp;O33</f>
+        <v>0.606</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17">
+      <c r="B47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="6">
+        <v>256.89999999999998</v>
+      </c>
+      <c r="D47" s="6">
+        <v>227.910267429969</v>
+      </c>
+      <c r="E47" s="4">
+        <v>-0.189</v>
+      </c>
+      <c r="F47" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>0.424</v>
+      </c>
+      <c r="I47" t="s">
+        <v>51</v>
+      </c>
+      <c r="J47" s="4">
+        <v>0.38091660300000002</v>
+      </c>
+      <c r="K47" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>0.004**</v>
+      </c>
+      <c r="L47" s="4">
+        <v>0.28950460099999997</v>
+      </c>
+      <c r="M47" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>0.014*</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17">
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="6">
+        <v>2.4623499999999998</v>
+      </c>
+      <c r="D48" s="6">
+        <v>1.1895999443090099</v>
+      </c>
+      <c r="E48" s="4">
+        <v>-0.32900000000000001</v>
+      </c>
+      <c r="F48" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>0.157</v>
+      </c>
+      <c r="I48" t="s">
+        <v>52</v>
+      </c>
+      <c r="J48" s="4">
+        <v>3.5831804000000002E-2</v>
+      </c>
+      <c r="K48" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>0.424</v>
+      </c>
+      <c r="L48" s="4">
+        <v>2.2846117999999999E-2</v>
+      </c>
+      <c r="M48" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>0.525</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13">
+      <c r="B49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="6">
+        <v>0.19578319289999899</v>
+      </c>
+      <c r="D49" s="6">
+        <v>0.117262868887656</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0.374</v>
+      </c>
+      <c r="F49" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>0.105</v>
+      </c>
+      <c r="I49" t="s">
+        <v>53</v>
+      </c>
+      <c r="J49" s="4">
+        <v>0.108001479</v>
+      </c>
+      <c r="K49" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>0.157</v>
+      </c>
+      <c r="L49" s="4">
+        <v>0.180777618</v>
+      </c>
+      <c r="M49" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>0.062†</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13">
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="6">
+        <v>0.16526584969999999</v>
+      </c>
+      <c r="D50" s="6">
+        <v>0.13516750803249999</v>
+      </c>
+      <c r="E50" s="4">
+        <v>-2.3E-2</v>
+      </c>
+      <c r="F50" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>0.925</v>
+      </c>
+      <c r="I50" t="s">
+        <v>54</v>
+      </c>
+      <c r="J50" s="4">
+        <v>0.13963260399999999</v>
+      </c>
+      <c r="K50" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>0.105</v>
+      </c>
+      <c r="L50" s="4">
+        <v>4.9920649999999997E-2</v>
+      </c>
+      <c r="M50" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>0.344</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13">
+      <c r="B51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="6">
+        <v>0.15639296499999999</v>
+      </c>
+      <c r="D51" s="6">
+        <v>0.126568619932586</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="F51" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>0.321</v>
+      </c>
+      <c r="I51" t="s">
+        <v>55</v>
+      </c>
+      <c r="J51" s="4">
+        <v>5.0836800000000004E-4</v>
+      </c>
+      <c r="K51" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>0.925</v>
+      </c>
+      <c r="L51" s="4">
+        <v>5.9123839999999997E-3</v>
+      </c>
+      <c r="M51" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>0.747</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13">
+      <c r="B52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="6">
+        <v>0.17248066919999999</v>
+      </c>
+      <c r="D52" s="6">
+        <v>0.105550936486662</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0.222</v>
+      </c>
+      <c r="F52" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>0.346</v>
+      </c>
+      <c r="I52" t="s">
+        <v>56</v>
+      </c>
+      <c r="J52" s="4">
+        <v>5.4628804000000003E-2</v>
+      </c>
+      <c r="K52" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>0.321</v>
+      </c>
+      <c r="L52" s="4">
+        <v>0.10527088</v>
+      </c>
+      <c r="M52" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>0.163</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13">
+      <c r="I53" t="s">
+        <v>57</v>
+      </c>
+      <c r="J53" s="4">
         <v>4.9362873000000002E-2</v>
       </c>
-      <c r="K40" s="4">
-        <v>0.346463562</v>
-      </c>
-      <c r="L40" s="4">
+      <c r="K53" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>0.346</v>
+      </c>
+      <c r="L53" s="4">
         <v>1.7961395000000002E-2</v>
       </c>
-      <c r="M40" s="4">
-        <v>0.57322002100000002</v>
-      </c>
-      <c r="N40" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O40" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="M53" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>0.573</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B42:F42"/>
+  </mergeCells>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/csv/図の作成用.xlsx
+++ b/csv/図の作成用.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miyakooti/repositories/arai_MATLAB_program/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6734DF-C48C-7A43-972D-CEA9CE16CC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AA5970-AC64-5540-A3E2-0BA7FCD6B04E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-9600" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="61">
   <si>
     <t>LF</t>
     <phoneticPr fontId="18"/>
@@ -1245,7 +1245,7 @@
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="S39" sqref="S39"/>
+      <selection activeCell="G30" sqref="G30:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1308,16 +1308,16 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>75.511427333499995</v>
+        <v>75.5610006</v>
       </c>
       <c r="D2">
-        <v>7.6282781956801102</v>
+        <v>8.1210491514429997</v>
       </c>
       <c r="E2">
-        <v>0.121406203246561</v>
+        <v>0.18241645570317</v>
       </c>
       <c r="F2">
-        <v>0.61013695527990097</v>
+        <v>0.51524051715705899</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2">
@@ -1327,28 +1327,28 @@
         <v>4</v>
       </c>
       <c r="J2">
-        <v>0.61013695499999998</v>
+        <v>0.51524051715705999</v>
       </c>
       <c r="K2">
-        <v>1.4739466E-2</v>
+        <v>3.3275763311306897E-2</v>
       </c>
       <c r="L2">
-        <v>-3.9997230000000002E-2</v>
+        <v>-4.1087639510900102E-2</v>
       </c>
       <c r="M2">
-        <v>2.6256448000000002E-2</v>
+        <v>3.8735952844009297E-2</v>
       </c>
       <c r="N2">
-        <v>0.61163749700000003</v>
+        <v>0.51984930878703495</v>
       </c>
       <c r="O2">
-        <v>1.461688E-2</v>
+        <v>3.2563363934905699E-2</v>
       </c>
       <c r="P2">
-        <v>-4.0126625999999999E-2</v>
+        <v>-4.1854838839332199E-2</v>
       </c>
       <c r="Q2">
-        <v>1.66558E-4</v>
+        <v>2.4436177762888399E-4</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1359,16 +1359,16 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>802.25999560000002</v>
+        <v>802.79420697333296</v>
       </c>
       <c r="D3">
-        <v>76.408220444873905</v>
+        <v>81.718659420191997</v>
       </c>
       <c r="E3">
-        <v>-0.12240196325991901</v>
+        <v>-0.185726807550261</v>
       </c>
       <c r="F3">
-        <v>0.60718789614871405</v>
+        <v>0.50751182940222495</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3">
@@ -1378,28 +1378,28 @@
         <v>5</v>
       </c>
       <c r="J3">
-        <v>0.607187896</v>
+        <v>0.50751182940222395</v>
       </c>
       <c r="K3">
-        <v>1.4982241E-2</v>
+        <v>3.4494447042812099E-2</v>
       </c>
       <c r="L3">
-        <v>-3.9740968000000002E-2</v>
+        <v>-3.9775210876971501E-2</v>
       </c>
       <c r="M3">
-        <v>-2.6428340000000002E-3</v>
+        <v>-3.9193651743990596E-3</v>
       </c>
       <c r="N3">
-        <v>0.60600168399999998</v>
+        <v>0.50458221602633002</v>
       </c>
       <c r="O3">
-        <v>1.5080589E-2</v>
+        <v>3.49643929160793E-2</v>
       </c>
       <c r="P3">
-        <v>-3.9637156999999999E-2</v>
+        <v>-3.9269115321145298E-2</v>
       </c>
       <c r="Q3" s="2">
-        <v>-1.68E-6</v>
+        <v>-2.4990303225065501E-6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1410,16 +1410,16 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>478.7</v>
+        <v>481.73333333333301</v>
       </c>
       <c r="D4">
-        <v>281.790365342749</v>
+        <v>313.85611706994302</v>
       </c>
       <c r="E4">
-        <v>-0.61718441596542395</v>
+        <v>-0.69797458465366202</v>
       </c>
       <c r="F4">
-        <v>3.7429946650656101E-3</v>
+        <v>3.80907467370439E-3</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4">
@@ -1429,28 +1429,28 @@
         <v>6</v>
       </c>
       <c r="J4">
-        <v>3.7429949999999998E-3</v>
+        <v>3.80907467370438E-3</v>
       </c>
       <c r="K4">
-        <v>0.38091660300000002</v>
+        <v>0.48716852082245199</v>
       </c>
       <c r="L4">
-        <v>0.34652308100000001</v>
+        <v>0.447719945501102</v>
       </c>
       <c r="M4">
-        <v>-3.6133530000000001E-3</v>
+        <v>-3.8350530915898999E-3</v>
       </c>
       <c r="N4">
-        <v>1.4398123000000001E-2</v>
+        <v>1.17340208150976E-2</v>
       </c>
       <c r="O4">
-        <v>0.28950460099999997</v>
+        <v>0.39757716149704397</v>
       </c>
       <c r="P4">
-        <v>0.25003263399999998</v>
+        <v>0.35123694315066301</v>
       </c>
       <c r="Q4" s="2">
-        <v>-2.2199999999999999E-6</v>
+        <v>-2.4043303551904601E-6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1461,16 +1461,16 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>256.89999999999998</v>
+        <v>275.2</v>
       </c>
       <c r="D5">
-        <v>227.910267429969</v>
+        <v>256.00812487106703</v>
       </c>
       <c r="E5">
-        <v>-0.189292904559693</v>
+        <v>-0.29258816079048899</v>
       </c>
       <c r="F5">
-        <v>0.42411586107346699</v>
+        <v>0.28993544988373099</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5">
@@ -1480,28 +1480,28 @@
         <v>7</v>
       </c>
       <c r="J5">
-        <v>0.42411586099999998</v>
+        <v>0.28993544988372999</v>
       </c>
       <c r="K5">
-        <v>3.5831804000000002E-2</v>
+        <v>8.5607831834761394E-2</v>
       </c>
       <c r="L5">
-        <v>-1.7733096E-2</v>
+        <v>1.52699727451276E-2</v>
       </c>
       <c r="M5">
-        <v>-1.370226E-3</v>
+        <v>-1.9709035396516198E-3</v>
       </c>
       <c r="N5">
-        <v>0.52470681399999997</v>
+        <v>0.40822808147407302</v>
       </c>
       <c r="O5">
-        <v>2.2846117999999999E-2</v>
+        <v>5.3195749057362102E-2</v>
       </c>
       <c r="P5">
-        <v>-3.1440208999999997E-2</v>
+        <v>-1.96353471689945E-2</v>
       </c>
       <c r="Q5" s="2">
-        <v>-9.7699999999999992E-7</v>
+        <v>-1.37085594170218E-6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1512,16 +1512,16 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>2.4623499999999998</v>
+        <v>2.4049999999999998</v>
       </c>
       <c r="D6">
-        <v>1.1895999443090099</v>
+        <v>1.2252525181909699</v>
       </c>
       <c r="E6">
-        <v>-0.328635785460202</v>
+        <v>-0.23963406021406</v>
       </c>
       <c r="F6">
-        <v>0.15714910344931199</v>
+        <v>0.38966886909595899</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6">
@@ -1531,28 +1531,28 @@
         <v>8</v>
       </c>
       <c r="J6">
-        <v>0.15714910300000001</v>
+        <v>0.38966886909595799</v>
       </c>
       <c r="K6">
-        <v>0.108001479</v>
+        <v>5.7424482814675902E-2</v>
       </c>
       <c r="L6">
-        <v>5.8446006000000002E-2</v>
+        <v>-1.50813261995796E-2</v>
       </c>
       <c r="M6">
-        <v>-0.45575929999999998</v>
+        <v>-0.33727590136818097</v>
       </c>
       <c r="N6">
-        <v>6.1644846000000003E-2</v>
+        <v>0.185037785306467</v>
       </c>
       <c r="O6">
-        <v>0.180777618</v>
+        <v>0.130952903950353</v>
       </c>
       <c r="P6">
-        <v>0.135265263</v>
+        <v>6.4103127331150395E-2</v>
       </c>
       <c r="Q6">
-        <v>-0.113248796</v>
+        <v>-9.7478763503609595E-2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1563,16 +1563,16 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>-18.216340554999999</v>
+        <v>-29.943613786666599</v>
       </c>
       <c r="D7">
-        <v>361.238995786923</v>
+        <v>368.14083696402503</v>
       </c>
       <c r="E7">
-        <v>0.27144406645558899</v>
+        <v>0.51479855448537204</v>
       </c>
       <c r="F7">
-        <v>0.24699928141470701</v>
+        <v>4.95725897998434E-2</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -1581,28 +1581,28 @@
         <v>9</v>
       </c>
       <c r="J7">
-        <v>0.24699928099999999</v>
+        <v>4.9572589799843303E-2</v>
       </c>
       <c r="K7">
-        <v>7.3681881000000005E-2</v>
+        <v>0.265017551700228</v>
       </c>
       <c r="L7">
-        <v>2.2219763999999999E-2</v>
+        <v>0.208480440292554</v>
       </c>
       <c r="M7">
-        <v>1.2396740000000001E-3</v>
+        <v>2.41149126178857E-3</v>
       </c>
       <c r="N7">
-        <v>0.28516276400000001</v>
+        <v>0.38360875760817198</v>
       </c>
       <c r="O7">
-        <v>6.3156185000000004E-2</v>
+        <v>5.8864173141332701E-2</v>
       </c>
       <c r="P7">
-        <v>1.1109307000000001E-2</v>
+        <v>-1.35308904631801E-2</v>
       </c>
       <c r="Q7" s="2">
-        <v>-1.75E-6</v>
+        <v>-1.6048142921584001E-6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1613,16 +1613,16 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>251.47043021445</v>
+        <v>226.79796209393299</v>
       </c>
       <c r="D8">
-        <v>289.704452222881</v>
+        <v>258.34947692808299</v>
       </c>
       <c r="E8">
-        <v>0.36014381946616503</v>
+        <v>0.46102545889957902</v>
       </c>
       <c r="F8">
-        <v>0.118811586258221</v>
+        <v>8.3697198402077094E-2</v>
       </c>
       <c r="H8">
         <v>6</v>
@@ -1631,28 +1631,28 @@
         <v>10</v>
       </c>
       <c r="J8">
-        <v>0.118811586</v>
+        <v>8.36971984020774E-2</v>
       </c>
       <c r="K8">
-        <v>0.12970357099999999</v>
+        <v>0.212544473753568</v>
       </c>
       <c r="L8">
-        <v>8.1353769000000006E-2</v>
+        <v>0.15197097173461099</v>
       </c>
       <c r="M8">
-        <v>2.0508900000000001E-3</v>
+        <v>3.0773698274615601E-3</v>
       </c>
       <c r="N8">
-        <v>0.37472372300000001</v>
+        <v>0.216924833071825</v>
       </c>
       <c r="O8">
-        <v>4.4004429999999997E-2</v>
+        <v>0.114693636798405</v>
       </c>
       <c r="P8">
-        <v>-9.1064349999999995E-3</v>
+        <v>4.6593147321359801E-2</v>
       </c>
       <c r="Q8" s="2">
-        <v>1.26E-6</v>
+        <v>2.7181011505662199E-6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1663,16 +1663,16 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>-0.54642892455000003</v>
+        <v>-0.52721287573333298</v>
       </c>
       <c r="D9">
-        <v>1.9584725484228001</v>
+        <v>1.92307229764817</v>
       </c>
       <c r="E9">
-        <v>-0.12746000951394201</v>
+        <v>2.0742578850784999E-2</v>
       </c>
       <c r="F9">
-        <v>0.59229874419797901</v>
+        <v>0.94150909489908696</v>
       </c>
       <c r="H9">
         <v>7</v>
@@ -1681,28 +1681,28 @@
         <v>11</v>
       </c>
       <c r="J9">
-        <v>0.59229874400000004</v>
+        <v>0.94150909489908696</v>
       </c>
       <c r="K9">
-        <v>1.6246053999999999E-2</v>
+        <v>4.3025457738110601E-4</v>
       </c>
       <c r="L9">
-        <v>-3.8406942999999999E-2</v>
+        <v>-7.6459725839743406E-2</v>
       </c>
       <c r="M9">
-        <v>-0.107368795</v>
+        <v>1.8600709367595E-2</v>
       </c>
       <c r="N9">
-        <v>0.91136329199999999</v>
+        <v>0.79249365620451795</v>
       </c>
       <c r="O9">
-        <v>7.0757100000000005E-4</v>
+        <v>5.5168425122125104E-3</v>
       </c>
       <c r="P9">
-        <v>-5.4808675000000001E-2</v>
+        <v>-7.0981861909924907E-2</v>
       </c>
       <c r="Q9">
-        <v>8.2375509999999992E-3</v>
+        <v>2.2170843921964899E-2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1713,16 +1713,16 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>0.43941249999999998</v>
+        <v>0.46767999999999998</v>
       </c>
       <c r="D10">
-        <v>0.12917601971244499</v>
+        <v>0.13392613292408601</v>
       </c>
       <c r="E10">
-        <v>-0.12010018018239101</v>
+        <v>-0.19845698046252799</v>
       </c>
       <c r="F10">
-        <v>0.61401367376812299</v>
+        <v>0.47829892007970898</v>
       </c>
       <c r="H10">
         <v>8</v>
@@ -1731,28 +1731,28 @@
         <v>12</v>
       </c>
       <c r="J10">
-        <v>0.61401367399999995</v>
+        <v>0.47829892007970998</v>
       </c>
       <c r="K10">
-        <v>1.4424052999999999E-2</v>
+        <v>3.9385173094304803E-2</v>
       </c>
       <c r="L10">
-        <v>-4.0330166000000001E-2</v>
+        <v>-3.4508275129210002E-2</v>
       </c>
       <c r="M10">
-        <v>-1.5338517389999999</v>
+        <v>-2.55542664908914</v>
       </c>
       <c r="N10">
-        <v>0.79703244299999998</v>
+        <v>0.62007283967982696</v>
       </c>
       <c r="O10">
-        <v>3.7710959999999998E-3</v>
+        <v>1.9452582604502701E-2</v>
       </c>
       <c r="P10">
-        <v>-5.1574953999999999E-2</v>
+        <v>-5.5974141810535498E-2</v>
       </c>
       <c r="Q10">
-        <v>-0.79012735099999998</v>
+        <v>-1.7712225413376299</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1763,16 +1763,16 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>0.47572199999999998</v>
+        <v>0.50130066666666595</v>
       </c>
       <c r="D11">
-        <v>0.120995997727197</v>
+        <v>0.12555892542104999</v>
       </c>
       <c r="E11">
-        <v>4.2554971661239303E-2</v>
+        <v>-3.5607843332199303E-2</v>
       </c>
       <c r="F11">
-        <v>0.858614949923176</v>
+        <v>0.89974528650806096</v>
       </c>
       <c r="H11">
         <v>9</v>
@@ -1781,28 +1781,28 @@
         <v>13</v>
       </c>
       <c r="J11">
-        <v>0.85861494999999999</v>
+        <v>0.89974528650805996</v>
       </c>
       <c r="K11">
-        <v>1.810926E-3</v>
+        <v>1.2679185067704299E-3</v>
       </c>
       <c r="L11">
-        <v>-5.3644022999999999E-2</v>
+        <v>-7.5557626223477795E-2</v>
       </c>
       <c r="M11">
-        <v>0.58023099300000003</v>
+        <v>-0.48905809226247399</v>
       </c>
       <c r="N11">
-        <v>0.79153432300000004</v>
-      </c>
-      <c r="O11">
-        <v>3.9826360000000003E-3</v>
+        <v>0.97386535136716901</v>
+      </c>
+      <c r="O11" s="2">
+        <v>8.5789421424009501E-5</v>
       </c>
       <c r="P11">
-        <v>-5.1351661999999999E-2</v>
+        <v>-7.68306883153895E-2</v>
       </c>
       <c r="Q11">
-        <v>0.79277652899999995</v>
+        <v>-0.11449947793771501</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1813,16 +1813,16 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>0.56686999999999999</v>
+        <v>0.59597599999999995</v>
       </c>
       <c r="D12">
-        <v>0.105703155109012</v>
+        <v>0.103573855890374</v>
       </c>
       <c r="E12">
-        <v>6.1530458136688096E-3</v>
+        <v>-0.143150642923837</v>
       </c>
       <c r="F12">
-        <v>0.97946031204817696</v>
+        <v>0.61078292594483397</v>
       </c>
       <c r="H12">
         <v>10</v>
@@ -1831,28 +1831,28 @@
         <v>14</v>
       </c>
       <c r="J12">
-        <v>0.97946031200000006</v>
-      </c>
-      <c r="K12" s="2">
-        <v>3.79E-5</v>
+        <v>0.61078292594483297</v>
+      </c>
+      <c r="K12">
+        <v>2.0492106569507802E-2</v>
       </c>
       <c r="L12">
-        <v>-5.5515592000000002E-2</v>
+        <v>-5.4854654463606801E-2</v>
       </c>
       <c r="M12">
-        <v>9.6033734999999995E-2</v>
+        <v>-2.38344715523976</v>
       </c>
       <c r="N12">
-        <v>0.92054074699999999</v>
+        <v>0.66467975970430204</v>
       </c>
       <c r="O12">
-        <v>5.68211E-4</v>
+        <v>1.4906152894673501E-2</v>
       </c>
       <c r="P12">
-        <v>-5.4955777999999997E-2</v>
+        <v>-6.0870296882659103E-2</v>
       </c>
       <c r="Q12">
-        <v>0.32325765200000001</v>
+        <v>-1.7407933551163699</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1863,16 +1863,16 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>0.49400149994999998</v>
+        <v>0.52165222219999996</v>
       </c>
       <c r="D13">
-        <v>0.111674596877435</v>
+        <v>0.113235007240495</v>
       </c>
       <c r="E13">
-        <v>-2.89970019489313E-2</v>
+        <v>-0.13504693674094401</v>
       </c>
       <c r="F13">
-        <v>0.90341104067081901</v>
+        <v>0.63132156779263504</v>
       </c>
       <c r="H13">
         <v>11</v>
@@ -1881,28 +1881,28 @@
         <v>15</v>
       </c>
       <c r="J13">
-        <v>0.90341104100000003</v>
+        <v>0.63132156779263404</v>
       </c>
       <c r="K13">
-        <v>8.4082600000000003E-4</v>
+        <v>1.82376751231128E-2</v>
       </c>
       <c r="L13">
-        <v>-5.4668016999999999E-2</v>
+        <v>-5.7282503713570597E-2</v>
       </c>
       <c r="M13">
-        <v>-0.428371261</v>
+        <v>-2.0566784357242698</v>
       </c>
       <c r="N13">
-        <v>0.99562516000000001</v>
-      </c>
-      <c r="O13" s="2">
-        <v>1.72E-6</v>
+        <v>0.725625987132269</v>
+      </c>
+      <c r="O13">
+        <v>9.7967881080650507E-3</v>
       </c>
       <c r="P13">
-        <v>-5.5553743000000003E-2</v>
+        <v>-6.6372689729776002E-2</v>
       </c>
       <c r="Q13">
-        <v>-1.7573811000000002E-2</v>
+        <v>-1.3319586571537601</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1913,16 +1913,16 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>0.19578319289999899</v>
+        <v>0.17391586406666601</v>
       </c>
       <c r="D14">
-        <v>0.117262868887656</v>
+        <v>0.10529754406861699</v>
       </c>
       <c r="E14">
-        <v>0.373674462970431</v>
+        <v>0.493911694610146</v>
       </c>
       <c r="F14">
-        <v>0.104601927572138</v>
+        <v>6.1309335696796599E-2</v>
       </c>
       <c r="H14">
         <v>12</v>
@@ -1931,28 +1931,28 @@
         <v>16</v>
       </c>
       <c r="J14">
-        <v>0.104601928</v>
+        <v>6.1309335696796703E-2</v>
       </c>
       <c r="K14">
-        <v>0.13963260399999999</v>
+        <v>0.243948762072666</v>
       </c>
       <c r="L14">
-        <v>9.1834416000000002E-2</v>
+        <v>0.18579097453979401</v>
       </c>
       <c r="M14">
-        <v>5.2572003299999999</v>
+        <v>8.0889739445245095</v>
       </c>
       <c r="N14">
-        <v>0.34368284700000001</v>
+        <v>0.30197916223100701</v>
       </c>
       <c r="O14">
-        <v>4.9920649999999997E-2</v>
+        <v>8.1618807151787306E-2</v>
       </c>
       <c r="P14">
-        <v>-2.861536E-3</v>
+        <v>1.0974100009617099E-2</v>
       </c>
       <c r="Q14">
-        <v>7.267884842</v>
+        <v>13.671610544124601</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1963,16 +1963,16 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>0.16526584969999999</v>
+        <v>0.14149491893333299</v>
       </c>
       <c r="D15">
-        <v>0.13516750803249999</v>
+        <v>0.12608885874346901</v>
       </c>
       <c r="E15">
-        <v>-2.2547023984628298E-2</v>
+        <v>0.18247099734156799</v>
       </c>
       <c r="F15">
-        <v>0.92482936080186295</v>
+        <v>0.51511274505728499</v>
       </c>
       <c r="H15">
         <v>13</v>
@@ -1981,28 +1981,28 @@
         <v>17</v>
       </c>
       <c r="J15">
-        <v>0.92482936100000002</v>
+        <v>0.51511274505728499</v>
       </c>
       <c r="K15">
-        <v>5.0836800000000004E-4</v>
+        <v>3.3295664870826497E-2</v>
       </c>
       <c r="L15">
-        <v>-5.5018945E-2</v>
+        <v>-4.1066207062186701E-2</v>
       </c>
       <c r="M15">
-        <v>-0.27519373499999999</v>
+        <v>2.4956259972987702</v>
       </c>
       <c r="N15">
-        <v>0.74729566400000003</v>
+        <v>0.60632693540662097</v>
       </c>
       <c r="O15">
-        <v>5.9123839999999997E-3</v>
+        <v>2.1002560427556199E-2</v>
       </c>
       <c r="P15">
-        <v>-4.9314706E-2</v>
+        <v>-5.4304934924170198E-2</v>
       </c>
       <c r="Q15">
-        <v>-2.640719008</v>
+        <v>6.2569601358719904</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -2013,16 +2013,16 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>0.15639296499999999</v>
+        <v>0.13295432326666601</v>
       </c>
       <c r="D16">
-        <v>0.126568619932586</v>
+        <v>0.130489585131224</v>
       </c>
       <c r="E16">
-        <v>0.23372805636411101</v>
+        <v>0.38356032131989598</v>
       </c>
       <c r="F16">
-        <v>0.32130171775522698</v>
+        <v>0.15815065679408</v>
       </c>
       <c r="H16">
         <v>14</v>
@@ -2031,28 +2031,28 @@
         <v>18</v>
       </c>
       <c r="J16">
-        <v>0.32130171800000001</v>
+        <v>0.158150656794079</v>
       </c>
       <c r="K16">
-        <v>5.4628804000000003E-2</v>
+        <v>0.147118520091022</v>
       </c>
       <c r="L16">
-        <v>2.1081820000000001E-3</v>
+        <v>8.1512252405716606E-2</v>
       </c>
       <c r="M16">
-        <v>3.0465367790000002</v>
+        <v>5.0689755047530802</v>
       </c>
       <c r="N16">
-        <v>0.16281253700000001</v>
+        <v>8.8256456479243503E-2</v>
       </c>
       <c r="O16">
-        <v>0.10527088</v>
+        <v>0.207139081720084</v>
       </c>
       <c r="P16">
-        <v>5.5563706999999997E-2</v>
+        <v>0.146149780313936</v>
       </c>
       <c r="Q16">
-        <v>13.817874659999999</v>
+        <v>19.866273154774799</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -2063,16 +2063,16 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>0.17248066919999999</v>
+        <v>0.14945503539999999</v>
       </c>
       <c r="D17">
-        <v>0.105550936486662</v>
+        <v>9.8868185301138195E-2</v>
       </c>
       <c r="E17">
-        <v>0.222177571063504</v>
+        <v>0.42165864616714899</v>
       </c>
       <c r="F17">
-        <v>0.34646356227077202</v>
+        <v>0.11747803210239</v>
       </c>
       <c r="H17">
         <v>15</v>
@@ -2081,28 +2081,28 @@
         <v>19</v>
       </c>
       <c r="J17">
-        <v>0.346463562</v>
+        <v>0.117478032102389</v>
       </c>
       <c r="K17">
-        <v>4.9362873000000002E-2</v>
+        <v>0.17779601388751301</v>
       </c>
       <c r="L17">
-        <v>-3.4503009999999998E-3</v>
+        <v>0.11454955341732199</v>
       </c>
       <c r="M17">
-        <v>3.4726398629999999</v>
+        <v>7.3547313945603499</v>
       </c>
       <c r="N17">
-        <v>0.57322002100000002</v>
+        <v>0.213897912966246</v>
       </c>
       <c r="O17">
-        <v>1.7961395000000002E-2</v>
+        <v>0.116124154123786</v>
       </c>
       <c r="P17">
-        <v>-3.6596305000000003E-2</v>
+        <v>4.8133704441000902E-2</v>
       </c>
       <c r="Q17">
-        <v>6.3567725859999999</v>
+        <v>21.482222430291401</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="21" customHeight="1"/>
@@ -2438,19 +2438,19 @@
       </c>
       <c r="C32" s="6">
         <f>ROUND(C2,2)</f>
-        <v>75.510000000000005</v>
+        <v>75.56</v>
       </c>
       <c r="D32" s="6">
         <f>ROUND(D2,2)</f>
-        <v>7.63</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="E32" s="4">
         <f>ROUND(E2,3)</f>
-        <v>0.121</v>
+        <v>0.182</v>
       </c>
       <c r="F32" s="4">
         <f>ROUND(F2,3)</f>
-        <v>0.61</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="G32" s="8" t="str">
         <f>IF(F32="","",IF(F32&lt;0.01,"**",IF(F32&lt;0.05,"*",IF(F32&lt;0.1,"†",""))))</f>
@@ -2461,19 +2461,19 @@
       </c>
       <c r="J32" s="4">
         <f>ROUND(K2,3)</f>
-        <v>1.4999999999999999E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="K32" s="4">
         <f>ROUND(J2,3)</f>
-        <v>0.61</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="L32" s="4">
         <f>ROUND(O2,3)</f>
-        <v>1.4999999999999999E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="M32" s="4">
         <f>ROUND(N2,3)</f>
-        <v>0.61199999999999999</v>
+        <v>0.52</v>
       </c>
       <c r="N32" s="8" t="str">
         <f>IF(K32="","",IF(K32&lt;0.01,"**",IF(K32&lt;0.05,"*",IF(K32&lt;0.1,"†",""))))</f>
@@ -2491,19 +2491,19 @@
       </c>
       <c r="C33" s="6">
         <f t="shared" ref="C33:D36" si="0">ROUND(C3,2)</f>
-        <v>802.26</v>
+        <v>802.79</v>
       </c>
       <c r="D33" s="6">
         <f t="shared" si="0"/>
-        <v>76.41</v>
+        <v>81.72</v>
       </c>
       <c r="E33" s="4">
         <f t="shared" ref="E33:F36" si="1">ROUND(E3,3)</f>
-        <v>-0.122</v>
+        <v>-0.186</v>
       </c>
       <c r="F33" s="4">
         <f t="shared" si="1"/>
-        <v>0.60699999999999998</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="G33" s="8" t="str">
         <f t="shared" ref="G33:G40" si="2">IF(F33="","",IF(F33&lt;0.01,"**",IF(F33&lt;0.05,"*",IF(F33&lt;0.1,"†",""))))</f>
@@ -2514,19 +2514,19 @@
       </c>
       <c r="J33" s="4">
         <f t="shared" ref="J33:J36" si="3">ROUND(K3,3)</f>
-        <v>1.4999999999999999E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="K33" s="4">
         <f t="shared" ref="K33:K36" si="4">ROUND(J3,3)</f>
-        <v>0.60699999999999998</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="L33" s="4">
         <f t="shared" ref="L33:L36" si="5">ROUND(O3,3)</f>
-        <v>1.4999999999999999E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="M33" s="4">
         <f t="shared" ref="M33:M36" si="6">ROUND(N3,3)</f>
-        <v>0.60599999999999998</v>
+        <v>0.505</v>
       </c>
       <c r="N33" s="8" t="str">
         <f t="shared" ref="N33:N40" si="7">IF(K33="","",IF(K33&lt;0.01,"**",IF(K33&lt;0.05,"*",IF(K33&lt;0.1,"†",""))))</f>
@@ -2544,15 +2544,15 @@
       </c>
       <c r="C34" s="6">
         <f t="shared" si="0"/>
-        <v>478.7</v>
+        <v>481.73</v>
       </c>
       <c r="D34" s="6">
         <f t="shared" si="0"/>
-        <v>281.79000000000002</v>
+        <v>313.86</v>
       </c>
       <c r="E34" s="4">
         <f>ROUND(E4,3)</f>
-        <v>-0.61699999999999999</v>
+        <v>-0.69799999999999995</v>
       </c>
       <c r="F34" s="4">
         <f>ROUND(F4,3)</f>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="J34" s="4">
         <f t="shared" si="3"/>
-        <v>0.38100000000000001</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="K34" s="4">
         <f t="shared" si="4"/>
@@ -2575,11 +2575,11 @@
       </c>
       <c r="L34" s="4">
         <f t="shared" si="5"/>
-        <v>0.28999999999999998</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="M34" s="4">
         <f t="shared" si="6"/>
-        <v>1.4E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="N34" s="8" t="str">
         <f t="shared" si="7"/>
@@ -2597,19 +2597,19 @@
       </c>
       <c r="C35" s="6">
         <f t="shared" si="0"/>
-        <v>256.89999999999998</v>
+        <v>275.2</v>
       </c>
       <c r="D35" s="6">
         <f t="shared" si="0"/>
-        <v>227.91</v>
+        <v>256.01</v>
       </c>
       <c r="E35" s="4">
         <f t="shared" si="1"/>
-        <v>-0.189</v>
+        <v>-0.29299999999999998</v>
       </c>
       <c r="F35" s="4">
         <f t="shared" si="1"/>
-        <v>0.42399999999999999</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G35" s="8" t="str">
         <f t="shared" si="2"/>
@@ -2620,19 +2620,19 @@
       </c>
       <c r="J35" s="4">
         <f t="shared" si="3"/>
-        <v>3.5999999999999997E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="K35" s="4">
         <f t="shared" si="4"/>
-        <v>0.42399999999999999</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="L35" s="4">
         <f t="shared" si="5"/>
-        <v>2.3E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="M35" s="4">
         <f t="shared" si="6"/>
-        <v>0.52500000000000002</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="N35" s="8" t="str">
         <f t="shared" si="7"/>
@@ -2649,19 +2649,19 @@
       </c>
       <c r="C36" s="6">
         <f t="shared" si="0"/>
-        <v>2.46</v>
+        <v>2.41</v>
       </c>
       <c r="D36" s="6">
         <f t="shared" si="0"/>
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="E36" s="4">
         <f t="shared" si="1"/>
-        <v>-0.32900000000000001</v>
+        <v>-0.24</v>
       </c>
       <c r="F36" s="4">
         <f t="shared" si="1"/>
-        <v>0.157</v>
+        <v>0.39</v>
       </c>
       <c r="G36" s="8" t="str">
         <f t="shared" si="2"/>
@@ -2672,19 +2672,19 @@
       </c>
       <c r="J36" s="4">
         <f t="shared" si="3"/>
-        <v>0.108</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="K36" s="4">
         <f t="shared" si="4"/>
-        <v>0.157</v>
+        <v>0.39</v>
       </c>
       <c r="L36" s="4">
         <f t="shared" si="5"/>
-        <v>0.18099999999999999</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="M36" s="4">
         <f t="shared" si="6"/>
-        <v>6.2E-2</v>
+        <v>0.185</v>
       </c>
       <c r="N36" s="8" t="str">
         <f t="shared" si="7"/>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="O36" s="8" t="str">
         <f>IF(M36="","",IF(M36&lt;0.01,"**",IF(M36&lt;0.05,"*",IF(M36&lt;0.1,"†",""))))</f>
-        <v>†</v>
+        <v/>
       </c>
     </row>
     <row r="37" spans="2:17">
@@ -2701,46 +2701,46 @@
       </c>
       <c r="C37" s="6">
         <f>ROUND(C14,2)</f>
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="D37" s="6">
         <f>ROUND(D14,2)</f>
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E37" s="4">
         <f>ROUND(E14,3)</f>
-        <v>0.374</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="F37" s="4">
         <f>ROUND(F14,3)</f>
-        <v>0.105</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="G37" s="8" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>†</v>
       </c>
       <c r="I37" t="s">
         <v>41</v>
       </c>
       <c r="J37" s="4">
         <f>ROUND(K14,3)</f>
-        <v>0.14000000000000001</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="K37" s="4">
         <f>ROUND(J14,3)</f>
-        <v>0.105</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="L37" s="4">
         <f>ROUND(O14,3)</f>
-        <v>0.05</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="M37" s="4">
         <f>ROUND(N14,3)</f>
-        <v>0.34399999999999997</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="N37" s="8" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>†</v>
       </c>
       <c r="O37" s="8" t="str">
         <f t="shared" si="8"/>
@@ -2753,19 +2753,19 @@
       </c>
       <c r="C38" s="6">
         <f t="shared" ref="C38:D40" si="9">ROUND(C15,2)</f>
-        <v>0.17</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D38" s="6">
         <f t="shared" si="9"/>
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="E38" s="4">
         <f t="shared" ref="E38:F40" si="10">ROUND(E15,3)</f>
-        <v>-2.3E-2</v>
+        <v>0.182</v>
       </c>
       <c r="F38" s="4">
         <f t="shared" si="10"/>
-        <v>0.92500000000000004</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="G38" s="8" t="str">
         <f t="shared" si="2"/>
@@ -2776,19 +2776,19 @@
       </c>
       <c r="J38" s="4">
         <f t="shared" ref="J38:J40" si="11">ROUND(K15,3)</f>
-        <v>1E-3</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="K38" s="4">
         <f t="shared" ref="K38:K40" si="12">ROUND(J15,3)</f>
-        <v>0.92500000000000004</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="L38" s="4">
         <f t="shared" ref="L38:L40" si="13">ROUND(O15,3)</f>
-        <v>6.0000000000000001E-3</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="M38" s="4">
         <f t="shared" ref="M38:M40" si="14">ROUND(N15,3)</f>
-        <v>0.747</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="N38" s="8" t="str">
         <f t="shared" si="7"/>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="C39" s="6">
         <f t="shared" si="9"/>
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="D39" s="6">
         <f t="shared" si="9"/>
@@ -2813,11 +2813,11 @@
       </c>
       <c r="E39" s="4">
         <f t="shared" si="10"/>
-        <v>0.23400000000000001</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="F39" s="4">
         <f t="shared" si="10"/>
-        <v>0.32100000000000001</v>
+        <v>0.158</v>
       </c>
       <c r="G39" s="8" t="str">
         <f t="shared" si="2"/>
@@ -2828,19 +2828,19 @@
       </c>
       <c r="J39" s="4">
         <f t="shared" si="11"/>
-        <v>5.5E-2</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="K39" s="4">
         <f t="shared" si="12"/>
-        <v>0.32100000000000001</v>
+        <v>0.158</v>
       </c>
       <c r="L39" s="4">
         <f t="shared" si="13"/>
-        <v>0.105</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="M39" s="4">
         <f t="shared" si="14"/>
-        <v>0.16300000000000001</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="N39" s="8" t="str">
         <f t="shared" si="7"/>
@@ -2848,7 +2848,7 @@
       </c>
       <c r="O39" s="8" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>†</v>
       </c>
     </row>
     <row r="40" spans="2:17">
@@ -2857,19 +2857,19 @@
       </c>
       <c r="C40" s="6">
         <f t="shared" si="9"/>
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="D40" s="6">
         <f t="shared" si="9"/>
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E40" s="4">
         <f t="shared" si="10"/>
-        <v>0.222</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="F40" s="4">
         <f t="shared" si="10"/>
-        <v>0.34599999999999997</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="G40" s="8" t="str">
         <f t="shared" si="2"/>
@@ -2880,19 +2880,19 @@
       </c>
       <c r="J40" s="4">
         <f t="shared" si="11"/>
-        <v>4.9000000000000002E-2</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="K40" s="4">
         <f t="shared" si="12"/>
-        <v>0.34599999999999997</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="L40" s="4">
         <f t="shared" si="13"/>
-        <v>1.7999999999999999E-2</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="M40" s="4">
         <f t="shared" si="14"/>
-        <v>0.57299999999999995</v>
+        <v>0.214</v>
       </c>
       <c r="N40" s="8" t="str">
         <f t="shared" si="7"/>
@@ -2911,6 +2911,13 @@
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
+      <c r="I42" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
     </row>
     <row r="43" spans="2:17">
       <c r="B43" s="3"/>
@@ -2951,7 +2958,7 @@
       </c>
       <c r="F44" s="4" t="str">
         <f>F32&amp;G32</f>
-        <v>0.61</v>
+        <v>0.515</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="5" t="s">
@@ -2982,7 +2989,7 @@
       </c>
       <c r="F45" s="4" t="str">
         <f t="shared" ref="F45:F52" si="15">F33&amp;G33</f>
-        <v>0.607</v>
+        <v>0.508</v>
       </c>
       <c r="I45" t="s">
         <v>49</v>
@@ -2992,14 +2999,14 @@
       </c>
       <c r="K45" s="4" t="str">
         <f>K32&amp;N32</f>
-        <v>0.61</v>
+        <v>0.515</v>
       </c>
       <c r="L45" s="4">
         <v>1.461688E-2</v>
       </c>
       <c r="M45" s="4" t="str">
         <f>M32&amp;O32</f>
-        <v>0.612</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="46" spans="2:17">
@@ -3027,14 +3034,14 @@
       </c>
       <c r="K46" s="4" t="str">
         <f t="shared" ref="K46:K53" si="16">K33&amp;N33</f>
-        <v>0.607</v>
+        <v>0.508</v>
       </c>
       <c r="L46" s="4">
         <v>1.5080589E-2</v>
       </c>
       <c r="M46" s="4" t="str">
         <f t="shared" ref="M46:M53" si="17">M33&amp;O33</f>
-        <v>0.606</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="47" spans="2:17">
@@ -3052,7 +3059,7 @@
       </c>
       <c r="F47" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>0.424</v>
+        <v>0.29</v>
       </c>
       <c r="I47" t="s">
         <v>51</v>
@@ -3069,7 +3076,7 @@
       </c>
       <c r="M47" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>0.014*</v>
+        <v>0.012*</v>
       </c>
     </row>
     <row r="48" spans="2:17">
@@ -3087,7 +3094,7 @@
       </c>
       <c r="F48" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>0.157</v>
+        <v>0.39</v>
       </c>
       <c r="I48" t="s">
         <v>52</v>
@@ -3097,14 +3104,14 @@
       </c>
       <c r="K48" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>0.424</v>
+        <v>0.29</v>
       </c>
       <c r="L48" s="4">
         <v>2.2846117999999999E-2</v>
       </c>
       <c r="M48" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>0.525</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="49" spans="2:13">
@@ -3122,7 +3129,7 @@
       </c>
       <c r="F49" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>0.105</v>
+        <v>0.061†</v>
       </c>
       <c r="I49" t="s">
         <v>53</v>
@@ -3132,14 +3139,14 @@
       </c>
       <c r="K49" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>0.157</v>
+        <v>0.39</v>
       </c>
       <c r="L49" s="4">
         <v>0.180777618</v>
       </c>
       <c r="M49" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>0.062†</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="50" spans="2:13">
@@ -3157,7 +3164,7 @@
       </c>
       <c r="F50" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>0.925</v>
+        <v>0.515</v>
       </c>
       <c r="I50" t="s">
         <v>54</v>
@@ -3167,14 +3174,14 @@
       </c>
       <c r="K50" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>0.105</v>
+        <v>0.061†</v>
       </c>
       <c r="L50" s="4">
         <v>4.9920649999999997E-2</v>
       </c>
       <c r="M50" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>0.344</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="51" spans="2:13">
@@ -3192,7 +3199,7 @@
       </c>
       <c r="F51" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>0.321</v>
+        <v>0.158</v>
       </c>
       <c r="I51" t="s">
         <v>55</v>
@@ -3202,14 +3209,14 @@
       </c>
       <c r="K51" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>0.925</v>
+        <v>0.515</v>
       </c>
       <c r="L51" s="4">
         <v>5.9123839999999997E-3</v>
       </c>
       <c r="M51" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>0.747</v>
+        <v>0.606</v>
       </c>
     </row>
     <row r="52" spans="2:13">
@@ -3227,7 +3234,7 @@
       </c>
       <c r="F52" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>0.346</v>
+        <v>0.117</v>
       </c>
       <c r="I52" t="s">
         <v>56</v>
@@ -3237,14 +3244,14 @@
       </c>
       <c r="K52" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>0.321</v>
+        <v>0.158</v>
       </c>
       <c r="L52" s="4">
         <v>0.10527088</v>
       </c>
       <c r="M52" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>0.163</v>
+        <v>0.088†</v>
       </c>
     </row>
     <row r="53" spans="2:13">
@@ -3256,19 +3263,20 @@
       </c>
       <c r="K53" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>0.346</v>
+        <v>0.117</v>
       </c>
       <c r="L53" s="4">
         <v>1.7961395000000002E-2</v>
       </c>
       <c r="M53" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>0.573</v>
+        <v>0.214</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B42:F42"/>
+    <mergeCell ref="I42:M42"/>
   </mergeCells>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
